--- a/SANS_GR1.xlsx
+++ b/SANS_GR1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="525" windowWidth="19815" windowHeight="9405" activeTab="13"/>
+    <workbookView xWindow="270" yWindow="525" windowWidth="19815" windowHeight="9405" tabRatio="598" firstSheet="7" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="3001-GR1" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,18 @@
     <sheet name="3001-AG2" sheetId="12" r:id="rId12"/>
     <sheet name="3001-AG4" sheetId="13" r:id="rId13"/>
     <sheet name="3001-AG5" sheetId="14" r:id="rId14"/>
+    <sheet name="3001-AG10" sheetId="15" r:id="rId15"/>
+    <sheet name="3001-AG20" sheetId="16" r:id="rId16"/>
+    <sheet name="3001-AG21" sheetId="17" r:id="rId17"/>
+    <sheet name="3001-AG22" sheetId="18" r:id="rId18"/>
+    <sheet name="CSV AG" sheetId="19" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3369" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4073" uniqueCount="910">
   <si>
     <t>Label</t>
   </si>
@@ -1988,496 +1993,775 @@
     <t>sans_gr_cpp10-sans_gr_pr11</t>
   </si>
   <si>
-    <t>sans_ag1_co</t>
-  </si>
-  <si>
-    <t>sans_ag1_cb</t>
-  </si>
-  <si>
-    <t>sans_ag1_cho</t>
-  </si>
-  <si>
-    <t>sans_ag1_chb</t>
-  </si>
-  <si>
-    <t>sans_ag1_ao</t>
-  </si>
-  <si>
-    <t>sans_ag1_ab</t>
+    <t>sans_ag1_mr1</t>
+  </si>
+  <si>
+    <t>sans_ag1_mr2</t>
+  </si>
+  <si>
+    <t>sans_ag1_mr3</t>
+  </si>
+  <si>
+    <t>sans_ag1_mr4</t>
+  </si>
+  <si>
+    <t>sans_ag1_mr5</t>
+  </si>
+  <si>
+    <t>sans_ag1_mr6</t>
+  </si>
+  <si>
+    <t>sans_ag1_mr7</t>
+  </si>
+  <si>
+    <t>sans_ag1_mr8</t>
+  </si>
+  <si>
+    <t>sans_ag1_mr9</t>
+  </si>
+  <si>
+    <t>sans_ag1_mr10</t>
+  </si>
+  <si>
+    <t>sans_ag1_pr1</t>
+  </si>
+  <si>
+    <t>sans_ag1_pr2</t>
+  </si>
+  <si>
+    <t>sans_ag1_pr3</t>
+  </si>
+  <si>
+    <t>sans_ag1_pr4</t>
+  </si>
+  <si>
+    <t>sans_ag1_pr5</t>
+  </si>
+  <si>
+    <t>sans_ag1_pr6</t>
+  </si>
+  <si>
+    <t>sans_ag1_pr7</t>
+  </si>
+  <si>
+    <t>sans_ag1_pr8</t>
+  </si>
+  <si>
+    <t>sans_ag1_pr9</t>
+  </si>
+  <si>
+    <t>sans_ag1_pr10</t>
+  </si>
+  <si>
+    <t>sans_ag1_cpp1</t>
+  </si>
+  <si>
+    <t>100-sans_ag1_pr1</t>
+  </si>
+  <si>
+    <t>sans_ag1_cpp2</t>
+  </si>
+  <si>
+    <t>sans_ag1_cpp1-sans_ag1_pr2</t>
+  </si>
+  <si>
+    <t>sans_ag1_cpp3</t>
+  </si>
+  <si>
+    <t>sans_ag1_cpp2-sans_ag1_pr3</t>
+  </si>
+  <si>
+    <t>sans_ag1_cpp4</t>
+  </si>
+  <si>
+    <t>sans_ag1_cpp3-sans_ag1_pr4</t>
+  </si>
+  <si>
+    <t>sans_ag1_cpp5</t>
+  </si>
+  <si>
+    <t>sans_ag1_cpp4-sans_ag1_pr5</t>
+  </si>
+  <si>
+    <t>sans_ag1_cpp6</t>
+  </si>
+  <si>
+    <t>sans_ag1_cpp7</t>
+  </si>
+  <si>
+    <t>sans_ag1_cpp8</t>
+  </si>
+  <si>
+    <t>sans_ag1_cpp9</t>
+  </si>
+  <si>
+    <t>sans_ag1_cpp10</t>
+  </si>
+  <si>
+    <t>Test Sample Mass</t>
+  </si>
+  <si>
+    <t>10 mm</t>
+  </si>
+  <si>
+    <t>7.1 mm</t>
+  </si>
+  <si>
+    <t>2 mm</t>
+  </si>
+  <si>
+    <t>1 mm</t>
+  </si>
+  <si>
+    <t>sans_ag1_tsm - (sans_ag1_m2+ sans_ag1_mr2+sans_ag1_mr3+sans_ag1_mr4+sans_ag1_mr5+sans_ag1_mr6+sans_ag1_mr7+sans_ag1_mr8+sans_ag1_mr9+sans_ag1_mr10)</t>
+  </si>
+  <si>
+    <t>(sans_ag1_mr1/sans_ag1_tsm)*100</t>
+  </si>
+  <si>
+    <t>(sans_ag1_mr2/sans_ag1_tsm)*100</t>
+  </si>
+  <si>
+    <t>(sans_ag1_mr3/sans_ag1_tsm)*100</t>
+  </si>
+  <si>
+    <t>(sans_ag1_mr4/sans_ag1_tsm)*100</t>
+  </si>
+  <si>
+    <t>(sans_ag1_mr5/sans_ag1_tsm)*100</t>
+  </si>
+  <si>
+    <t>(sans_ag1_mr6/sans_ag1_tsm)*100</t>
+  </si>
+  <si>
+    <t>(sans_ag1_mr7/sans_ag1_tsm)*100</t>
+  </si>
+  <si>
+    <t>(sans_ag1_mr8/sans_ag1_tsm)*100</t>
+  </si>
+  <si>
+    <t>(sans_ag1_mr9/sans_ag1_tsm)*100</t>
+  </si>
+  <si>
+    <t>(sans_ag1_mr10/sans_ag1_tsm)*100</t>
+  </si>
+  <si>
+    <t>sans_ag1_cpp6-sans_ag1_pr6</t>
+  </si>
+  <si>
+    <t>sans_ag1_cpp7-sans_ag1_pr7</t>
+  </si>
+  <si>
+    <t>sans_ag1_cpp8-sans_ag1_pr8</t>
+  </si>
+  <si>
+    <t>sans_ag1_cpp9-sans_ag1_pr9</t>
+  </si>
+  <si>
+    <t>sans_ag1_cpp10-sans_ag1_pr10</t>
+  </si>
+  <si>
+    <t>Average Least Dimension</t>
+  </si>
+  <si>
+    <t>Least Dimension</t>
+  </si>
+  <si>
+    <t>in_array</t>
+  </si>
+  <si>
+    <t>28.0 mm</t>
+  </si>
+  <si>
+    <t>sans_ag2_ld</t>
+  </si>
+  <si>
+    <t>sans_ag2_ald</t>
+  </si>
+  <si>
+    <t>sum(sans_ag2_ld)/sans_ag2_ld.length</t>
+  </si>
+  <si>
+    <t>sans_ag4_tsm</t>
+  </si>
+  <si>
+    <t>sans_ag4_mr1</t>
+  </si>
+  <si>
+    <t>sans_ag4_mr2</t>
+  </si>
+  <si>
+    <t>sans_ag4_mr3</t>
+  </si>
+  <si>
+    <t>sans_ag4_mr4</t>
+  </si>
+  <si>
+    <t>sans_ag4_mr5</t>
+  </si>
+  <si>
+    <t>sans_ag4_mr6</t>
+  </si>
+  <si>
+    <t>sans_ag4_mr7</t>
+  </si>
+  <si>
+    <t>sans_ag4_mr8</t>
+  </si>
+  <si>
+    <t>Mass of Aggregate Passing 1</t>
+  </si>
+  <si>
+    <t>Mass of Aggregate Passing 2</t>
+  </si>
+  <si>
+    <t>Mass of Aggregate Passing 3</t>
+  </si>
+  <si>
+    <t>Mass of Aggregate Passing 4</t>
+  </si>
+  <si>
+    <t>Mass of Aggregate Passing 5</t>
+  </si>
+  <si>
+    <t>Mass of Aggregate Passing 6</t>
+  </si>
+  <si>
+    <t>Mass of Aggregate Passing 7</t>
+  </si>
+  <si>
+    <t>Mass of Aggregate Passing 8</t>
+  </si>
+  <si>
+    <t>sans_ag4_mp1</t>
+  </si>
+  <si>
+    <t>sans_ag4_mp2</t>
+  </si>
+  <si>
+    <t>sans_ag4_mp3</t>
+  </si>
+  <si>
+    <t>sans_ag4_mp4</t>
+  </si>
+  <si>
+    <t>sans_ag4_mp5</t>
+  </si>
+  <si>
+    <t>sans_ag4_mp6</t>
+  </si>
+  <si>
+    <t>sans_ag4_mp7</t>
+  </si>
+  <si>
+    <t>sans_ag4_mp8</t>
+  </si>
+  <si>
+    <t>Flakiness Index 1</t>
+  </si>
+  <si>
+    <t>Flakiness Index 2</t>
+  </si>
+  <si>
+    <t>Flakiness Index 3</t>
+  </si>
+  <si>
+    <t>Flakiness Index 4</t>
+  </si>
+  <si>
+    <t>Flakiness Index 5</t>
+  </si>
+  <si>
+    <t>Flakiness Index 6</t>
+  </si>
+  <si>
+    <t>Flakiness Index 7</t>
+  </si>
+  <si>
+    <t>Flakiness Index 8</t>
+  </si>
+  <si>
+    <t>sans_ag4_fi1</t>
+  </si>
+  <si>
+    <t>sans_ag4_fi2</t>
+  </si>
+  <si>
+    <t>sans_ag4_fi3</t>
+  </si>
+  <si>
+    <t>sans_ag4_fi4</t>
+  </si>
+  <si>
+    <t>sans_ag4_fi5</t>
+  </si>
+  <si>
+    <t>sans_ag4_fi6</t>
+  </si>
+  <si>
+    <t>sans_ag4_fi7</t>
+  </si>
+  <si>
+    <t>sans_ag4_fi8</t>
+  </si>
+  <si>
+    <t>100*(sans_ag4_mp1/sans_ag4_mr1)</t>
+  </si>
+  <si>
+    <t>100*(sans_ag4_mp2/sans_ag4_mr2)</t>
+  </si>
+  <si>
+    <t>100*(sans_ag4_mp3/sans_ag4_mr3)</t>
+  </si>
+  <si>
+    <t>100*(sans_ag4_mp4/sans_ag4_mr4)</t>
+  </si>
+  <si>
+    <t>100*(sans_ag4_mp5/sans_ag4_mr5)</t>
+  </si>
+  <si>
+    <t>100*(sans_ag4_mp6/sans_ag4_mr6)</t>
+  </si>
+  <si>
+    <t>100*(sans_ag4_mp7/sans_ag4_mr7)</t>
+  </si>
+  <si>
+    <t>100*(sans_ag4_mp8/sans_ag4_mr8)</t>
+  </si>
+  <si>
+    <t>Total Mass Retained</t>
+  </si>
+  <si>
+    <t>Total Aggregate Passing</t>
+  </si>
+  <si>
+    <t>Total Flakiness</t>
+  </si>
+  <si>
+    <t>sans_ag4_fit</t>
+  </si>
+  <si>
+    <t>sans_ag4_mpt</t>
+  </si>
+  <si>
+    <t>sans_ag4_mrt</t>
+  </si>
+  <si>
+    <t>sans_ag4_mp1+sans_ag4_mp2+sans_ag4_mp3+sans_ag4_mp4+sans_ag4_mp5+sans_ag4_mp6+sans_ag4_mp7+sans_ag4_mp8</t>
+  </si>
+  <si>
+    <t>sans_ag4_mr1+sans_ag4_mr2+sans_ag4_mr3+sans_ag4_mr4+sans_ag4_mr5+sans_ag4_mr6+sans_ag4_mr7+sans_ag4_mr8</t>
+  </si>
+  <si>
+    <t>100*(sans_ag4_mpt/sans_ag4_mrt)</t>
+  </si>
+  <si>
+    <t>Sand Reading</t>
+  </si>
+  <si>
+    <t>Fines Reading</t>
+  </si>
+  <si>
+    <t>Sands Equivalent Value</t>
+  </si>
+  <si>
+    <t>sans_ag5_sr</t>
+  </si>
+  <si>
+    <t>sans_ag5_fr</t>
+  </si>
+  <si>
+    <t>sans_ag5_se</t>
+  </si>
+  <si>
+    <t>((sans_ag5_sr -200)/sans_ag5_fr)*100</t>
+  </si>
+  <si>
+    <t>Sand Reading 10 min</t>
+  </si>
+  <si>
+    <t>Fines Reading 10 min</t>
+  </si>
+  <si>
+    <t>Sands Equivalent Value 10</t>
+  </si>
+  <si>
+    <t>sans_ag5_sr10</t>
+  </si>
+  <si>
+    <t>sans_ag5_fr10</t>
+  </si>
+  <si>
+    <t>sans_ag5_se10</t>
+  </si>
+  <si>
+    <t>((sans_ag5_sr10 -200)/sans_ag5_fr10)*100</t>
+  </si>
+  <si>
+    <t>Extended Sand Equivalent Value</t>
+  </si>
+  <si>
+    <t>sans_ag5_ese</t>
+  </si>
+  <si>
+    <t>(sans_ag5_se10^2)/sans_ag5_se</t>
+  </si>
+  <si>
+    <t>Sieve Size</t>
+  </si>
+  <si>
+    <t>Mass of Aggregate Retained</t>
+  </si>
+  <si>
+    <t>Mass of Aggregate passing</t>
+  </si>
+  <si>
+    <t>Flakiness index</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Flakiness Index</t>
+  </si>
+  <si>
+    <t>Sands Reading</t>
+  </si>
+  <si>
+    <t>Sands Reading (10 mm)</t>
+  </si>
+  <si>
+    <t>Fines Reading (10 mm)</t>
+  </si>
+  <si>
+    <t>Sand Equivalent Value</t>
+  </si>
+  <si>
+    <t>Sans Equivalent Value (10 mm)</t>
+  </si>
+  <si>
+    <t>Mass of Saturated Surface-dry Test Sample</t>
+  </si>
+  <si>
+    <t>Mass of Saturated  Test Sample in 25 degree water</t>
+  </si>
+  <si>
+    <t>Mass of Oven Dried Sample</t>
+  </si>
+  <si>
+    <t>Bulk Density of the Aggregate Particles</t>
+  </si>
+  <si>
+    <t>Apparent Density of Aggregate Particles</t>
+  </si>
+  <si>
+    <t>Water Absorption of the Test Sample</t>
+  </si>
+  <si>
+    <t>sans_ag20_mssd</t>
+  </si>
+  <si>
+    <t>sans_ag20_ms25w</t>
+  </si>
+  <si>
+    <t>sans_ag20_mod</t>
+  </si>
+  <si>
+    <t>sans_ag20_bd</t>
+  </si>
+  <si>
+    <t>sans_ag20_ad</t>
+  </si>
+  <si>
+    <t>sans_ag20_wa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">997*(sans_ag20_mod/(sans_ag20_mssd-sans_ag20_ms25w)) </t>
+  </si>
+  <si>
+    <t>100*((sans_ag20_mssd-sans_ag20_mod)/sans_ag20_mod)</t>
+  </si>
+  <si>
+    <t>997*(sans_ag20_mod/(sans_ag20_mod-sans_ag20_ms25w))</t>
+  </si>
+  <si>
+    <t>Mass of Clean Dry Pycnometer</t>
+  </si>
+  <si>
+    <t>Mass of Pycnometer filled with water</t>
+  </si>
+  <si>
+    <t>Mass of Pycnometer and Surface Dry Test Sample</t>
+  </si>
+  <si>
+    <t>Mass of Pycnometer, Test Sample and Water</t>
+  </si>
+  <si>
+    <t>Mass of Basin</t>
+  </si>
+  <si>
+    <t>Mass of Basin and Oven dried Sample</t>
+  </si>
+  <si>
+    <t>sans_ag21_m1</t>
+  </si>
+  <si>
+    <t>sans_ag21_m2</t>
+  </si>
+  <si>
+    <t>sans_ag21_m3</t>
+  </si>
+  <si>
+    <t>sans_ag21_m4</t>
+  </si>
+  <si>
+    <t>sans_ag21_m5</t>
+  </si>
+  <si>
+    <t>sans_ag21_m6</t>
+  </si>
+  <si>
+    <t>Apparent Density</t>
+  </si>
+  <si>
+    <t>kg/m&lt;sup&gt;3&lt;/sup&gt;</t>
+  </si>
+  <si>
+    <t>Water Absorption</t>
+  </si>
+  <si>
+    <t>Bulk Density</t>
+  </si>
+  <si>
+    <t>sans_ag21_ad</t>
+  </si>
+  <si>
+    <t>sans_ag21_wa</t>
+  </si>
+  <si>
+    <t>sans_ag21_bd</t>
+  </si>
+  <si>
+    <t>997*( (sans_ag21_m6-sans_ag21_m5)/( (sans_ag21_m3-sans_ag21_m1) - (sans_ag21_m4-sans_ag21_m2) ) )</t>
+  </si>
+  <si>
+    <t>997*( (sans_ag21_m6-sans_ag21_m5)/( (sans_ag21_m6-sans_ag21_m5) - (sans_ag21_m4-sans_ag21_m2) ) )</t>
+  </si>
+  <si>
+    <t>100*(((sans_ag21_m3-sans_ag21_m1)-(sans_ag21_m6-sans_ag21_m5))/(sans_ag21_m6-sans_ag21_m5))</t>
+  </si>
+  <si>
+    <t>Mass of Base Sample</t>
+  </si>
+  <si>
+    <t>Mass of Pycnometer and Glass Sheet</t>
+  </si>
+  <si>
+    <t>Mass of Pycnometer, Glass Sheet and Dried Sample</t>
+  </si>
+  <si>
+    <t>sans_ag22_mps</t>
+  </si>
+  <si>
+    <t>sans_ag22_mp</t>
+  </si>
+  <si>
+    <t>sans_ag22_mb</t>
+  </si>
+  <si>
+    <t>sans_ag22_mps-sans_ag22_mp</t>
+  </si>
+  <si>
+    <t>Mass of Pycnometer, Glass Sheet and Water</t>
+  </si>
+  <si>
+    <t>sans_ag22_mpw</t>
+  </si>
+  <si>
+    <t>Mass of Water</t>
+  </si>
+  <si>
+    <t>sans_ag22_mw</t>
+  </si>
+  <si>
+    <t>sans_ag22_mpw-sans_ag22_mp</t>
+  </si>
+  <si>
+    <t>Volume of Pycnometer</t>
+  </si>
+  <si>
+    <t>cm&lt;sup&gt;3&lt;/sup&gt;</t>
+  </si>
+  <si>
+    <t>sans_ag22_vp</t>
+  </si>
+  <si>
+    <t>sans_ag22_mw/0.997</t>
+  </si>
+  <si>
+    <t>Water required to fill Pycnometer when it contains dry sample</t>
+  </si>
+  <si>
+    <t>sans_ag22_mpw-sans_ag22_mps</t>
+  </si>
+  <si>
+    <t>Volume of Water to Picnometer when it contains dry sample</t>
+  </si>
+  <si>
+    <t>sans_ag22_wa</t>
+  </si>
+  <si>
+    <t>sans_ag22_mwa/0.997</t>
+  </si>
+  <si>
+    <t>Apparent Density of the base</t>
+  </si>
+  <si>
+    <t>sans_ag22_vpa</t>
+  </si>
+  <si>
+    <t>sans_ag22_adb</t>
+  </si>
+  <si>
+    <t>(1000*mb)/(vp-vpa)</t>
+  </si>
+  <si>
+    <t>sans_ag22_wabs</t>
+  </si>
+  <si>
+    <t>Adjust Apparent Density</t>
+  </si>
+  <si>
+    <t>Water Absorption (From SANS 3001-AG20)</t>
+  </si>
+  <si>
+    <t>sans_ag22_aadb</t>
+  </si>
+  <si>
+    <t>sans_ag22_adb/(1+((0.7*sans_ag22_wabs-0.3)*(sans_ag22_adb/10^5)))</t>
+  </si>
+  <si>
+    <t>Specimen Mass 1</t>
+  </si>
+  <si>
+    <t>Specimen Mass 2</t>
+  </si>
+  <si>
+    <t>Specimen Mass 3</t>
+  </si>
+  <si>
+    <t>sans_ag10_sm1</t>
+  </si>
+  <si>
+    <t>sans_ag10_sm2</t>
+  </si>
+  <si>
+    <t>sans_ag10_sm3</t>
+  </si>
+  <si>
+    <t>Aggregate Crushing Value</t>
+  </si>
+  <si>
+    <t>Mass Passing Seperating Sieve 1</t>
+  </si>
+  <si>
+    <t>Mass Passing Seperating Sieve 2</t>
+  </si>
+  <si>
+    <t>Mass Passing Seperating Sieve 3</t>
+  </si>
+  <si>
+    <t>sans_ag10_pss1</t>
+  </si>
+  <si>
+    <t>sans_ag10_pss2</t>
+  </si>
+  <si>
+    <t>sans_ag10_pss3</t>
+  </si>
+  <si>
+    <t>Number of Specimens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default </t>
+  </si>
+  <si>
+    <t>sans_ag10_nos</t>
+  </si>
+  <si>
+    <t>(100*sans_ag10_pss1)/sans_ag10_sm1</t>
+  </si>
+  <si>
+    <t>(100*sans_ag10_pss2)/sans_ag10_sm2</t>
+  </si>
+  <si>
+    <t>(100*sans_ag10_pss3)/sans_ag10_sm3</t>
+  </si>
+  <si>
+    <t>sans_ag10_acv1</t>
+  </si>
+  <si>
+    <t>sans_ag10_acv2</t>
+  </si>
+  <si>
+    <t>sans_ag10_acv3</t>
+  </si>
+  <si>
+    <t>(sans_ag10_acv1+sans_ag10_acv2+sans_ag10_acv3)/sans_ag10_nos</t>
+  </si>
+  <si>
+    <t>sans_ag10_aacv</t>
+  </si>
+  <si>
+    <t>Average Aggregate Crushing Value</t>
+  </si>
+  <si>
+    <t>kN</t>
+  </si>
+  <si>
+    <t>1st Point Load (ACV)</t>
+  </si>
+  <si>
+    <t>sans_ag10_3pl10</t>
+  </si>
+  <si>
+    <t>2nd Point Load</t>
+  </si>
+  <si>
+    <t>sans_ag10_2pl</t>
+  </si>
+  <si>
+    <t>2nd Point Load (Estimated 10% Fact)</t>
+  </si>
+  <si>
+    <t>sans_ag10_1pacv</t>
+  </si>
+  <si>
+    <t>sans_ag10_2e10</t>
+  </si>
+  <si>
+    <t>3rd Point Load</t>
+  </si>
+  <si>
+    <t>4000/sans_a10_1pacv</t>
+  </si>
+  <si>
+    <t>sans_ag10_2pl*(1-((sans_ag10_2e10-10)/sans_ag10_2e10))</t>
+  </si>
+  <si>
+    <t>default_value</t>
+  </si>
+  <si>
+    <t>method</t>
   </si>
   <si>
     <t>sans_ag1_tsm</t>
   </si>
   <si>
-    <t>sans_ag1_mr1</t>
-  </si>
-  <si>
-    <t>sans_ag1_mr2</t>
-  </si>
-  <si>
-    <t>sans_ag1_mr3</t>
-  </si>
-  <si>
-    <t>sans_ag1_mr4</t>
-  </si>
-  <si>
-    <t>sans_ag1_mr5</t>
-  </si>
-  <si>
-    <t>sans_ag1_mr6</t>
-  </si>
-  <si>
-    <t>sans_ag1_mr7</t>
-  </si>
-  <si>
-    <t>sans_ag1_mr8</t>
-  </si>
-  <si>
-    <t>sans_ag1_mr9</t>
-  </si>
-  <si>
-    <t>sans_ag1_mr10</t>
-  </si>
-  <si>
-    <t>sans_ag1_pr1</t>
-  </si>
-  <si>
-    <t>sans_ag1_pr2</t>
-  </si>
-  <si>
-    <t>sans_ag1_pr3</t>
-  </si>
-  <si>
-    <t>sans_ag1_pr4</t>
-  </si>
-  <si>
-    <t>sans_ag1_pr5</t>
-  </si>
-  <si>
-    <t>sans_ag1_pr6</t>
-  </si>
-  <si>
-    <t>sans_ag1_pr7</t>
-  </si>
-  <si>
-    <t>sans_ag1_pr8</t>
-  </si>
-  <si>
-    <t>sans_ag1_pr9</t>
-  </si>
-  <si>
-    <t>sans_ag1_pr10</t>
-  </si>
-  <si>
-    <t>sans_ag1_cpp1</t>
-  </si>
-  <si>
-    <t>100-sans_ag1_pr1</t>
-  </si>
-  <si>
-    <t>sans_ag1_cpp2</t>
-  </si>
-  <si>
-    <t>sans_ag1_cpp1-sans_ag1_pr2</t>
-  </si>
-  <si>
-    <t>sans_ag1_cpp3</t>
-  </si>
-  <si>
-    <t>sans_ag1_cpp2-sans_ag1_pr3</t>
-  </si>
-  <si>
-    <t>sans_ag1_cpp4</t>
-  </si>
-  <si>
-    <t>sans_ag1_cpp3-sans_ag1_pr4</t>
-  </si>
-  <si>
-    <t>sans_ag1_cpp5</t>
-  </si>
-  <si>
-    <t>sans_ag1_cpp4-sans_ag1_pr5</t>
-  </si>
-  <si>
-    <t>sans_ag1_cpp6</t>
-  </si>
-  <si>
-    <t>sans_ag1_cpp7</t>
-  </si>
-  <si>
-    <t>sans_ag1_cpp8</t>
-  </si>
-  <si>
-    <t>sans_ag1_cpp9</t>
-  </si>
-  <si>
-    <t>sans_ag1_cpp10</t>
-  </si>
-  <si>
-    <t>Test Sample Mass</t>
-  </si>
-  <si>
-    <t>10 mm</t>
-  </si>
-  <si>
-    <t>7.1 mm</t>
-  </si>
-  <si>
-    <t>2 mm</t>
-  </si>
-  <si>
-    <t>1 mm</t>
-  </si>
-  <si>
-    <t>sans_ag1_tsm - (sans_ag1_m2+ sans_ag1_mr2+sans_ag1_mr3+sans_ag1_mr4+sans_ag1_mr5+sans_ag1_mr6+sans_ag1_mr7+sans_ag1_mr8+sans_ag1_mr9+sans_ag1_mr10)</t>
-  </si>
-  <si>
-    <t>(sans_ag1_mr1/sans_ag1_tsm)*100</t>
-  </si>
-  <si>
-    <t>(sans_ag1_mr2/sans_ag1_tsm)*100</t>
-  </si>
-  <si>
-    <t>(sans_ag1_mr3/sans_ag1_tsm)*100</t>
-  </si>
-  <si>
-    <t>(sans_ag1_mr4/sans_ag1_tsm)*100</t>
-  </si>
-  <si>
-    <t>(sans_ag1_mr5/sans_ag1_tsm)*100</t>
-  </si>
-  <si>
-    <t>(sans_ag1_mr6/sans_ag1_tsm)*100</t>
-  </si>
-  <si>
-    <t>(sans_ag1_mr7/sans_ag1_tsm)*100</t>
-  </si>
-  <si>
-    <t>(sans_ag1_mr8/sans_ag1_tsm)*100</t>
-  </si>
-  <si>
-    <t>(sans_ag1_mr9/sans_ag1_tsm)*100</t>
-  </si>
-  <si>
-    <t>(sans_ag1_mr10/sans_ag1_tsm)*100</t>
-  </si>
-  <si>
-    <t>sans_ag1_cpp6-sans_ag1_pr6</t>
-  </si>
-  <si>
-    <t>sans_ag1_cpp7-sans_ag1_pr7</t>
-  </si>
-  <si>
-    <t>sans_ag1_cpp8-sans_ag1_pr8</t>
-  </si>
-  <si>
-    <t>sans_ag1_cpp9-sans_ag1_pr9</t>
-  </si>
-  <si>
-    <t>sans_ag1_cpp10-sans_ag1_pr10</t>
-  </si>
-  <si>
-    <t>Average Least Dimension</t>
-  </si>
-  <si>
-    <t>Least Dimension</t>
-  </si>
-  <si>
-    <t>in_array</t>
-  </si>
-  <si>
-    <t>28.0 mm</t>
-  </si>
-  <si>
-    <t>sans_ag2_co</t>
-  </si>
-  <si>
-    <t>sans_ag2_cb</t>
-  </si>
-  <si>
-    <t>sans_ag2_cho</t>
-  </si>
-  <si>
-    <t>sans_ag2_chb</t>
-  </si>
-  <si>
-    <t>sans_ag2_ao</t>
-  </si>
-  <si>
-    <t>sans_ag2_ab</t>
-  </si>
-  <si>
-    <t>sans_ag2_ld</t>
-  </si>
-  <si>
-    <t>sans_ag2_ald</t>
-  </si>
-  <si>
-    <t>sum(sans_ag2_ld)/sans_ag2_ld.length</t>
-  </si>
-  <si>
-    <t>sans_ag4_co</t>
-  </si>
-  <si>
-    <t>sans_ag4_cb</t>
-  </si>
-  <si>
-    <t>sans_ag4_cho</t>
-  </si>
-  <si>
-    <t>sans_ag4_chb</t>
-  </si>
-  <si>
-    <t>sans_ag4_ao</t>
-  </si>
-  <si>
-    <t>sans_ag4_ab</t>
-  </si>
-  <si>
-    <t>sans_ag4_tsm</t>
-  </si>
-  <si>
-    <t>sans_ag4_mr1</t>
-  </si>
-  <si>
-    <t>sans_ag4_mr2</t>
-  </si>
-  <si>
-    <t>sans_ag4_mr3</t>
-  </si>
-  <si>
-    <t>sans_ag4_mr4</t>
-  </si>
-  <si>
-    <t>sans_ag4_mr5</t>
-  </si>
-  <si>
-    <t>sans_ag4_mr6</t>
-  </si>
-  <si>
-    <t>sans_ag4_mr7</t>
-  </si>
-  <si>
-    <t>sans_ag4_mr8</t>
-  </si>
-  <si>
-    <t>Mass of Aggregate Passing 1</t>
-  </si>
-  <si>
-    <t>Mass of Aggregate Passing 2</t>
-  </si>
-  <si>
-    <t>Mass of Aggregate Passing 3</t>
-  </si>
-  <si>
-    <t>Mass of Aggregate Passing 4</t>
-  </si>
-  <si>
-    <t>Mass of Aggregate Passing 5</t>
-  </si>
-  <si>
-    <t>Mass of Aggregate Passing 6</t>
-  </si>
-  <si>
-    <t>Mass of Aggregate Passing 7</t>
-  </si>
-  <si>
-    <t>Mass of Aggregate Passing 8</t>
-  </si>
-  <si>
-    <t>sans_ag4_mp1</t>
-  </si>
-  <si>
-    <t>sans_ag4_mp2</t>
-  </si>
-  <si>
-    <t>sans_ag4_mp3</t>
-  </si>
-  <si>
-    <t>sans_ag4_mp4</t>
-  </si>
-  <si>
-    <t>sans_ag4_mp5</t>
-  </si>
-  <si>
-    <t>sans_ag4_mp6</t>
-  </si>
-  <si>
-    <t>sans_ag4_mp7</t>
-  </si>
-  <si>
-    <t>sans_ag4_mp8</t>
-  </si>
-  <si>
-    <t>Flakiness Index 1</t>
-  </si>
-  <si>
-    <t>Flakiness Index 2</t>
-  </si>
-  <si>
-    <t>Flakiness Index 3</t>
-  </si>
-  <si>
-    <t>Flakiness Index 4</t>
-  </si>
-  <si>
-    <t>Flakiness Index 5</t>
-  </si>
-  <si>
-    <t>Flakiness Index 6</t>
-  </si>
-  <si>
-    <t>Flakiness Index 7</t>
-  </si>
-  <si>
-    <t>Flakiness Index 8</t>
-  </si>
-  <si>
-    <t>sans_ag4_fi1</t>
-  </si>
-  <si>
-    <t>sans_ag4_fi2</t>
-  </si>
-  <si>
-    <t>sans_ag4_fi3</t>
-  </si>
-  <si>
-    <t>sans_ag4_fi4</t>
-  </si>
-  <si>
-    <t>sans_ag4_fi5</t>
-  </si>
-  <si>
-    <t>sans_ag4_fi6</t>
-  </si>
-  <si>
-    <t>sans_ag4_fi7</t>
-  </si>
-  <si>
-    <t>sans_ag4_fi8</t>
-  </si>
-  <si>
-    <t>100*(sans_ag4_mp1/sans_ag4_mr1)</t>
-  </si>
-  <si>
-    <t>100*(sans_ag4_mp2/sans_ag4_mr2)</t>
-  </si>
-  <si>
-    <t>100*(sans_ag4_mp3/sans_ag4_mr3)</t>
-  </si>
-  <si>
-    <t>100*(sans_ag4_mp4/sans_ag4_mr4)</t>
-  </si>
-  <si>
-    <t>100*(sans_ag4_mp5/sans_ag4_mr5)</t>
-  </si>
-  <si>
-    <t>100*(sans_ag4_mp6/sans_ag4_mr6)</t>
-  </si>
-  <si>
-    <t>100*(sans_ag4_mp7/sans_ag4_mr7)</t>
-  </si>
-  <si>
-    <t>100*(sans_ag4_mp8/sans_ag4_mr8)</t>
-  </si>
-  <si>
-    <t>Total Mass Retained</t>
-  </si>
-  <si>
-    <t>Total Aggregate Passing</t>
-  </si>
-  <si>
-    <t>Total Flakiness</t>
-  </si>
-  <si>
-    <t>sans_ag4_fit</t>
-  </si>
-  <si>
-    <t>sans_ag4_mpt</t>
-  </si>
-  <si>
-    <t>sans_ag4_mrt</t>
-  </si>
-  <si>
-    <t>sans_ag4_mp1+sans_ag4_mp2+sans_ag4_mp3+sans_ag4_mp4+sans_ag4_mp5+sans_ag4_mp6+sans_ag4_mp7+sans_ag4_mp8</t>
-  </si>
-  <si>
-    <t>sans_ag4_mr1+sans_ag4_mr2+sans_ag4_mr3+sans_ag4_mr4+sans_ag4_mr5+sans_ag4_mr6+sans_ag4_mr7+sans_ag4_mr8</t>
-  </si>
-  <si>
-    <t>100*(sans_ag4_mpt/sans_ag4_mrt)</t>
-  </si>
-  <si>
-    <t>Sand Reading</t>
-  </si>
-  <si>
-    <t>Fines Reading</t>
-  </si>
-  <si>
-    <t>Sands Equivalent Value</t>
-  </si>
-  <si>
-    <t>sans_ag5_co</t>
-  </si>
-  <si>
-    <t>sans_ag5_cb</t>
-  </si>
-  <si>
-    <t>sans_ag5_cho</t>
-  </si>
-  <si>
-    <t>sans_ag5_chb</t>
-  </si>
-  <si>
-    <t>sans_ag5_ao</t>
-  </si>
-  <si>
-    <t>sans_ag5_ab</t>
-  </si>
-  <si>
-    <t>sans_ag5_tsm</t>
-  </si>
-  <si>
-    <t>sans_ag5_sr</t>
-  </si>
-  <si>
-    <t>sans_ag5_fr</t>
-  </si>
-  <si>
-    <t>sans_ag5_se</t>
-  </si>
-  <si>
-    <t>((sans_ag5_sr -200)/sans_ag5_fr)*100</t>
-  </si>
-  <si>
-    <t>Sand Reading 10 min</t>
-  </si>
-  <si>
-    <t>Fines Reading 10 min</t>
-  </si>
-  <si>
-    <t>Sands Equivalent Value 10</t>
-  </si>
-  <si>
-    <t>sans_ag5_sr10</t>
-  </si>
-  <si>
-    <t>sans_ag5_fr10</t>
-  </si>
-  <si>
-    <t>sans_ag5_se10</t>
-  </si>
-  <si>
-    <t>((sans_ag5_sr10 -200)/sans_ag5_fr10)*100</t>
-  </si>
-  <si>
-    <t>Extended Sand Equivalent Value</t>
-  </si>
-  <si>
-    <t>sans_ag5_ese</t>
-  </si>
-  <si>
-    <t>(sans_ag5_se10^2)/sans_ag5_se</t>
+    <t>4000/sans_ag10_1pacv</t>
+  </si>
+  <si>
+    <t>Adjusted Apparent Density</t>
   </si>
 </sst>
 </file>
@@ -2489,12 +2773,26 @@
     <numFmt numFmtId="165" formatCode="[$-1C09]General"/>
     <numFmt numFmtId="166" formatCode="[$R-1C09]&quot; &quot;#,##0.00;[Red][$R-1C09]&quot;-&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2549,6 +2847,34 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2829,118 +3155,139 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="18" xfId="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="14" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="18" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="20" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="19" xfId="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="19" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="19" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="19" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="17" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="21" xfId="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="22" xfId="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="17" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="21" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="22" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="23" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -4213,8 +4560,8 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="25"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="45"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="95"/>
       <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
       <c r="R33" s="12"/>
@@ -4243,8 +4590,8 @@
       <c r="H34" s="25">
         <v>109</v>
       </c>
-      <c r="N34" s="44"/>
-      <c r="O34" s="45"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="95"/>
       <c r="P34" s="14"/>
       <c r="Q34" s="14"/>
       <c r="R34" s="12"/>
@@ -4273,8 +4620,8 @@
       <c r="H35" s="28">
         <v>110</v>
       </c>
-      <c r="N35" s="44"/>
-      <c r="O35" s="45"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="95"/>
       <c r="P35" s="14"/>
       <c r="Q35" s="14"/>
       <c r="R35" s="12"/>
@@ -4890,10 +5237,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ59"/>
+  <dimension ref="A1:AMJ60"/>
   <sheetViews>
-    <sheetView topLeftCell="E8" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4903,7 +5250,7 @@
     <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="65.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="55" style="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.75" style="1" customWidth="1"/>
@@ -4918,128 +5265,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="45" t="s">
         <v>553</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="46" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="21" t="s">
-        <v>7</v>
+        <v>541</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>653</v>
+        <v>907</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
       <c r="H2" s="23"/>
-      <c r="K2" s="33" t="s">
-        <v>695</v>
-      </c>
-      <c r="L2" s="29"/>
-    </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A3" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="18" t="s">
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>653</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
+      <c r="K3" s="33" t="s">
+        <v>688</v>
+      </c>
+      <c r="L3" s="29"/>
+    </row>
+    <row r="4" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A4" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>654</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="25"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="M3" s="29" t="s">
-        <v>554</v>
-      </c>
-      <c r="N3" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="O3" s="29" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A4" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>655</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="25"/>
-      <c r="K4" s="29" t="s">
-        <v>559</v>
-      </c>
-      <c r="L4" s="29"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="K4" s="33"/>
+      <c r="L4" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>554</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="14.25" customHeight="1">
       <c r="A5" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>656</v>
+        <v>40</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>655</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="25"/>
       <c r="K5" s="29" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L5" s="29"/>
       <c r="M5" s="30"/>
@@ -5048,23 +5394,25 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>657</v>
+        <v>43</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>656</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="25"/>
       <c r="K6" s="29" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L6" s="29"/>
       <c r="M6" s="30"/>
@@ -5072,24 +5420,26 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>658</v>
-      </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
+      <c r="A7" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="25"/>
       <c r="K7" s="29" t="s">
-        <v>696</v>
+        <v>561</v>
       </c>
       <c r="L7" s="29"/>
       <c r="M7" s="30"/>
@@ -5098,9 +5448,11 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="24" t="s">
-        <v>695</v>
-      </c>
-      <c r="B8" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>562</v>
+      </c>
       <c r="C8" s="6" t="s">
         <v>24</v>
       </c>
@@ -5108,13 +5460,13 @@
         <v>25</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="25"/>
       <c r="K8" s="29" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="L8" s="29"/>
       <c r="M8" s="30"/>
@@ -5122,26 +5474,26 @@
       <c r="O8" s="31"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>559</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>660</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
+      <c r="A9" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="25"/>
       <c r="K9" s="29" t="s">
-        <v>562</v>
+        <v>690</v>
       </c>
       <c r="L9" s="29"/>
       <c r="M9" s="30"/>
@@ -5150,10 +5502,10 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="24" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>560</v>
+        <v>692</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>24</v>
@@ -5162,13 +5514,13 @@
         <v>25</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="25"/>
       <c r="K10" s="29" t="s">
-        <v>698</v>
+        <v>562</v>
       </c>
       <c r="L10" s="29"/>
       <c r="M10" s="30"/>
@@ -5177,10 +5529,10 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="24" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>561</v>
+        <v>65</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>24</v>
@@ -5189,25 +5541,25 @@
         <v>25</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="25"/>
       <c r="K11" s="29" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="L11" s="29"/>
       <c r="M11" s="30"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="50"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="24" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>696</v>
+        <v>238</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>24</v>
@@ -5216,40 +5568,48 @@
         <v>25</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>663</v>
-      </c>
-      <c r="F12" s="6"/>
+        <v>662</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>693</v>
+      </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="25"/>
+      <c r="H12" s="25">
+        <v>30001</v>
+      </c>
       <c r="K12" s="29" t="s">
-        <v>65</v>
+        <v>692</v>
       </c>
       <c r="L12" s="29"/>
       <c r="M12" s="30"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="48"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="25"/>
+      <c r="A13" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23">
+        <v>30002</v>
+      </c>
       <c r="K13" s="29" t="s">
-        <v>238</v>
+        <v>65</v>
       </c>
       <c r="L13" s="29"/>
       <c r="M13" s="30"/>
@@ -5258,77 +5618,90 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="24" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="25">
+        <v>30003</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="L14" s="29"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="25"/>
-      <c r="L14" s="33" t="s">
+      <c r="F15" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="25">
+        <v>30004</v>
+      </c>
+      <c r="L15" s="33" t="s">
         <v>556</v>
       </c>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-    </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1">
-      <c r="A15" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>698</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1">
+      <c r="A16" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="25"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>699</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>697</v>
+      </c>
       <c r="G16" s="6"/>
-      <c r="H16" s="25"/>
+      <c r="H16" s="25">
+        <v>30005</v>
+      </c>
       <c r="N16" s="18"/>
-      <c r="O16" s="16"/>
+      <c r="O16" s="15"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
@@ -5336,25 +5709,29 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="24" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>65</v>
+        <v>690</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>25</v>
+      <c r="D17" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="F17" s="6"/>
+        <v>667</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>698</v>
+      </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="25"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="45"/>
+      <c r="H17" s="25">
+        <v>30006</v>
+      </c>
+      <c r="N17" s="18"/>
+      <c r="O17" s="16"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
@@ -5362,59 +5739,59 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="24" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>238</v>
+        <v>562</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>25</v>
+      <c r="D18" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="25">
-        <v>30001</v>
-      </c>
-      <c r="N18" s="44"/>
-      <c r="O18" s="45"/>
+        <v>30007</v>
+      </c>
+      <c r="N18" s="94"/>
+      <c r="O18" s="95"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
       <c r="S18" s="12"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>559</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>670</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>701</v>
-      </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23">
-        <v>30002</v>
-      </c>
-      <c r="N19" s="44"/>
-      <c r="O19" s="45"/>
+      <c r="A19" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="25">
+        <v>30008</v>
+      </c>
+      <c r="N19" s="94"/>
+      <c r="O19" s="95"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
       <c r="R19" s="12"/>
@@ -5422,27 +5799,29 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="24" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>560</v>
+        <v>692</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="18" t="s">
         <v>68</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="25">
-        <v>30003</v>
-      </c>
+        <v>30009</v>
+      </c>
+      <c r="N20" s="94"/>
+      <c r="O20" s="95"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
@@ -5450,26 +5829,26 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="24" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>561</v>
+        <v>65</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="18" t="s">
         <v>68</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="25">
-        <v>30004</v>
+        <v>30010</v>
       </c>
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
@@ -5478,10 +5857,10 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="24" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>696</v>
+        <v>238</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>24</v>
@@ -5490,14 +5869,14 @@
         <v>68</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="25">
-        <v>30005</v>
+        <v>30011</v>
       </c>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
@@ -5505,27 +5884,27 @@
       <c r="S22" s="12"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="A23" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>673</v>
+      </c>
+      <c r="F23" s="22" t="s">
         <v>674</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="25">
-        <v>30006</v>
+      <c r="G23" s="22"/>
+      <c r="H23" s="23">
+        <v>30012</v>
       </c>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
@@ -5534,26 +5913,26 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="24" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>68</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>675</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>706</v>
+        <v>676</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="25">
-        <v>30007</v>
+        <v>30013</v>
       </c>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
@@ -5562,26 +5941,26 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="24" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>698</v>
+        <v>561</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>68</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>707</v>
+        <v>678</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="25">
-        <v>30008</v>
+        <v>30014</v>
       </c>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
@@ -5590,26 +5969,26 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="24" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>68</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>708</v>
+        <v>680</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="25">
-        <v>30009</v>
+        <v>30015</v>
       </c>
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
@@ -5618,26 +5997,26 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="24" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>24</v>
+        <v>690</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>68</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>678</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="G27" s="6"/>
+        <v>681</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>682</v>
+      </c>
+      <c r="G27" s="18"/>
       <c r="H27" s="25">
-        <v>30010</v>
+        <v>30016</v>
       </c>
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
@@ -5646,82 +6025,82 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="24" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="18" t="s">
         <v>68</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>710</v>
-      </c>
-      <c r="G28" s="6"/>
+        <v>683</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>704</v>
+      </c>
+      <c r="G28" s="18"/>
       <c r="H28" s="25">
-        <v>30011</v>
-      </c>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
+        <v>30017</v>
+      </c>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
       <c r="R28" s="12"/>
       <c r="S28" s="12"/>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>559</v>
-      </c>
-      <c r="C29" s="22" t="s">
+      <c r="A29" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>681</v>
-      </c>
-      <c r="G29" s="22"/>
-      <c r="H29" s="23">
-        <v>30012</v>
-      </c>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
+      <c r="D29" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>705</v>
+      </c>
+      <c r="G29" s="18"/>
+      <c r="H29" s="25">
+        <v>30018</v>
+      </c>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="24" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="C30" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>75</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>68</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="G30" s="6"/>
+        <v>685</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>706</v>
+      </c>
+      <c r="G30" s="18"/>
       <c r="H30" s="25">
-        <v>30013</v>
+        <v>30019</v>
       </c>
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
@@ -5730,26 +6109,26 @@
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="24" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="C31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="18" t="s">
         <v>75</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>68</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="G31" s="6"/>
+        <v>686</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>707</v>
+      </c>
+      <c r="G31" s="18"/>
       <c r="H31" s="25">
-        <v>30014</v>
+        <v>30020</v>
       </c>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
@@ -5757,232 +6136,88 @@
       <c r="S31" s="12"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="C32" s="6" t="s">
+      <c r="A32" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="C32" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="F32" s="6" t="s">
+      <c r="D32" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="27" t="s">
         <v>687</v>
       </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="25">
-        <v>30015</v>
+      <c r="F32" s="43" t="s">
+        <v>708</v>
+      </c>
+      <c r="G32" s="43"/>
+      <c r="H32" s="28">
+        <v>30021</v>
       </c>
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="1:19">
-      <c r="A33" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>688</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>689</v>
-      </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="25">
-        <v>30016</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
-      <c r="A34" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>690</v>
-      </c>
-      <c r="F34" s="18" t="s">
-        <v>711</v>
-      </c>
-      <c r="G34" s="18"/>
-      <c r="H34" s="25">
-        <v>30017</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
-      <c r="A35" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>698</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>691</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>712</v>
-      </c>
-      <c r="G35" s="18"/>
-      <c r="H35" s="25">
-        <v>30018</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
-      <c r="A36" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>699</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>713</v>
-      </c>
-      <c r="G36" s="18"/>
-      <c r="H36" s="25">
-        <v>30019</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
-      <c r="A37" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>693</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>714</v>
-      </c>
-      <c r="G37" s="18"/>
-      <c r="H37" s="25">
-        <v>30020</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
-      <c r="A38" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="C38" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>694</v>
-      </c>
-      <c r="F38" s="43" t="s">
-        <v>715</v>
-      </c>
-      <c r="G38" s="43"/>
-      <c r="H38" s="28">
-        <v>30021</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="15.75" customHeight="1">
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
-    </row>
-    <row r="40" spans="1:19">
+    <row r="33" spans="16:19">
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+    </row>
+    <row r="40" spans="16:19" ht="15.75" customHeight="1">
       <c r="P40" s="14"/>
       <c r="Q40" s="14"/>
       <c r="R40" s="12"/>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="16:19">
       <c r="P41" s="14"/>
       <c r="Q41" s="14"/>
       <c r="R41" s="12"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="16:19">
       <c r="P42" s="14"/>
       <c r="Q42" s="14"/>
       <c r="R42" s="12"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="16:19">
       <c r="P43" s="14"/>
       <c r="Q43" s="14"/>
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="16:19">
       <c r="P44" s="14"/>
       <c r="Q44" s="14"/>
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
     </row>
-    <row r="45" spans="1:19">
-      <c r="P45" s="13"/>
+    <row r="45" spans="16:19">
+      <c r="P45" s="14"/>
       <c r="Q45" s="14"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="14"/>
-    </row>
-    <row r="46" spans="1:19">
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+    </row>
+    <row r="46" spans="16:19">
       <c r="P46" s="13"/>
       <c r="Q46" s="14"/>
       <c r="R46" s="14"/>
       <c r="S46" s="14"/>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="16:19">
       <c r="P47" s="13"/>
       <c r="Q47" s="14"/>
       <c r="R47" s="14"/>
       <c r="S47" s="14"/>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="16:19">
       <c r="P48" s="13"/>
       <c r="Q48" s="14"/>
       <c r="R48" s="14"/>
@@ -5996,21 +6231,27 @@
     </row>
     <row r="50" spans="16:19">
       <c r="P50" s="13"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
-      <c r="S50" s="12"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
     </row>
     <row r="51" spans="16:19">
-      <c r="P51" s="12"/>
+      <c r="P51" s="13"/>
       <c r="Q51" s="12"/>
       <c r="R51" s="12"/>
       <c r="S51" s="12"/>
     </row>
-    <row r="59" spans="16:19" ht="17.25" customHeight="1"/>
+    <row r="52" spans="16:19">
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+    </row>
+    <row r="60" spans="16:19" ht="17.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="O17:O19"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="O18:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6021,7 +6262,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="A2" sqref="A2:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6056,149 +6297,101 @@
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" ht="15">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
+      <c r="A2" s="21" t="s">
+        <v>710</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>711</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>713</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="15">
-      <c r="A3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>721</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27" t="s">
+        <v>714</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>715</v>
+      </c>
+      <c r="G3" s="28">
+        <v>3</v>
+      </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="15">
-      <c r="A4" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>722</v>
-      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="8"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="15">
-      <c r="A5" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>723</v>
-      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="8"/>
+      <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="15">
-      <c r="A6" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>724</v>
-      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="8"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="15">
-      <c r="A7" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>725</v>
-      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="8"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="15">
-      <c r="A8" s="21" t="s">
-        <v>717</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>718</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>726</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="15">
-      <c r="A9" s="26" t="s">
-        <v>716</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27" t="s">
-        <v>727</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>728</v>
-      </c>
-      <c r="G9" s="28">
-        <v>3</v>
-      </c>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="15">
@@ -6214,9 +6407,9 @@
     <row r="11" spans="1:8" ht="15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -6224,7 +6417,7 @@
     <row r="12" spans="1:8" ht="15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="18"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="6"/>
@@ -6235,8 +6428,8 @@
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -6285,8 +6478,8 @@
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -6294,91 +6487,49 @@
     <row r="19" spans="1:8" ht="15">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="15">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="15">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" ht="15">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" ht="15">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="15">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" ht="15">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" ht="15">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" ht="15">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" ht="15">
@@ -6394,691 +6545,686 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B23" sqref="A1:G35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.125" style="55" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="55" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="55" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="55" customWidth="1"/>
-    <col min="5" max="5" width="18.125" style="55" customWidth="1"/>
-    <col min="6" max="6" width="112.25" style="55" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="55" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="55"/>
+    <col min="1" max="1" width="24" style="53" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="53" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="53" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="53" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="53" customWidth="1"/>
+    <col min="6" max="6" width="112.25" style="53" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="53" customWidth="1"/>
+    <col min="8" max="8" width="9" style="53"/>
+    <col min="9" max="9" width="16" style="53" customWidth="1"/>
+    <col min="10" max="10" width="22.375" style="53" customWidth="1"/>
+    <col min="11" max="11" width="23.875" style="53" customWidth="1"/>
+    <col min="12" max="12" width="18.875" style="53" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="52" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12">
       <c r="A2" s="56" t="s">
-        <v>7</v>
+        <v>688</v>
       </c>
       <c r="B2" s="57"/>
       <c r="C2" s="57" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E2" s="57" t="s">
+        <v>716</v>
+      </c>
+      <c r="F2" s="57"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>717</v>
+      </c>
+      <c r="F3" s="60"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>558</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>718</v>
+      </c>
+      <c r="F4" s="61"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>719</v>
+      </c>
+      <c r="F5" s="61"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>712</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>720</v>
+      </c>
+      <c r="F6" s="61"/>
+      <c r="I6" s="96" t="s">
+        <v>688</v>
+      </c>
+      <c r="J6" s="77"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>560</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>721</v>
+      </c>
+      <c r="F7" s="61"/>
+      <c r="I7" s="77">
+        <v>1</v>
+      </c>
+      <c r="J7" s="77">
+        <v>2</v>
+      </c>
+      <c r="K7" s="77">
+        <v>3</v>
+      </c>
+      <c r="L7" s="77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>561</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>722</v>
+      </c>
+      <c r="F8" s="61"/>
+      <c r="I8" s="75" t="s">
+        <v>791</v>
+      </c>
+      <c r="J8" s="75" t="s">
+        <v>792</v>
+      </c>
+      <c r="K8" s="75" t="s">
+        <v>793</v>
+      </c>
+      <c r="L8" s="75" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>689</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>723</v>
+      </c>
+      <c r="F9" s="61"/>
+      <c r="I9" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>690</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="59" t="s">
+        <v>724</v>
+      </c>
+      <c r="F10" s="62"/>
+      <c r="I10" s="76" t="s">
+        <v>558</v>
+      </c>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="54" t="s">
+        <v>725</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>733</v>
+      </c>
+      <c r="F11" s="60"/>
+      <c r="I11" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="56" t="s">
+        <v>726</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>558</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>734</v>
+      </c>
+      <c r="F12" s="61"/>
+      <c r="I12" s="76" t="s">
+        <v>712</v>
+      </c>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="56" t="s">
+        <v>727</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>735</v>
+      </c>
+      <c r="F13" s="61"/>
+      <c r="I13" s="76" t="s">
+        <v>560</v>
+      </c>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="56" t="s">
+        <v>728</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>712</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>736</v>
+      </c>
+      <c r="F14" s="61"/>
+      <c r="I14" s="76" t="s">
+        <v>561</v>
+      </c>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="56" t="s">
         <v>729</v>
       </c>
-      <c r="F2" s="57"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="54" t="s">
+      <c r="B15" s="57" t="s">
+        <v>560</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>737</v>
+      </c>
+      <c r="F15" s="61"/>
+      <c r="I15" s="76" t="s">
+        <v>689</v>
+      </c>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="56" t="s">
         <v>730</v>
       </c>
-      <c r="F3" s="59"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="54" t="s">
+      <c r="B16" s="57" t="s">
+        <v>561</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>738</v>
+      </c>
+      <c r="F16" s="61"/>
+      <c r="I16" s="76" t="s">
+        <v>690</v>
+      </c>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="56" t="s">
         <v>731</v>
       </c>
-      <c r="F4" s="59"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="54" t="s">
+      <c r="B17" s="57" t="s">
+        <v>689</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>739</v>
+      </c>
+      <c r="F17" s="61"/>
+      <c r="I17" s="75" t="s">
+        <v>795</v>
+      </c>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="58" t="s">
         <v>732</v>
       </c>
-      <c r="F5" s="59"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>733</v>
-      </c>
-      <c r="F6" s="59"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="61" t="s">
-        <v>734</v>
-      </c>
-      <c r="F7" s="61"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="58" t="s">
-        <v>695</v>
-      </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="59" t="s">
-        <v>735</v>
-      </c>
-      <c r="F8" s="59"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="57" t="s">
+      <c r="B18" s="59" t="s">
+        <v>690</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>740</v>
+      </c>
+      <c r="F18" s="62"/>
+      <c r="I18" s="75" t="s">
+        <v>796</v>
+      </c>
+      <c r="J18" s="77"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="54" t="s">
+        <v>741</v>
+      </c>
+      <c r="B19" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>736</v>
-      </c>
-      <c r="F9" s="62"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="59" t="s">
+      <c r="C19" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>749</v>
+      </c>
+      <c r="F19" s="60" t="s">
+        <v>757</v>
+      </c>
+      <c r="G19" s="53">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="56" t="s">
+        <v>742</v>
+      </c>
+      <c r="B20" s="57" t="s">
         <v>558</v>
       </c>
-      <c r="C10" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="59" t="s">
-        <v>737</v>
-      </c>
-      <c r="F10" s="63"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="59" t="s">
+      <c r="C20" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>750</v>
+      </c>
+      <c r="F20" s="61" t="s">
+        <v>758</v>
+      </c>
+      <c r="G20" s="53">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="56" t="s">
+        <v>743</v>
+      </c>
+      <c r="B21" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="59" t="s">
-        <v>738</v>
-      </c>
-      <c r="F11" s="63"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="59" t="s">
-        <v>719</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="59" t="s">
-        <v>739</v>
-      </c>
-      <c r="F12" s="63"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="59" t="s">
+      <c r="C21" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>751</v>
+      </c>
+      <c r="F21" s="61" t="s">
+        <v>759</v>
+      </c>
+      <c r="G21" s="53">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="56" t="s">
+        <v>744</v>
+      </c>
+      <c r="B22" s="57" t="s">
+        <v>712</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="57" t="s">
+        <v>752</v>
+      </c>
+      <c r="F22" s="61" t="s">
+        <v>760</v>
+      </c>
+      <c r="G22" s="53">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="56" t="s">
+        <v>745</v>
+      </c>
+      <c r="B23" s="57" t="s">
         <v>560</v>
       </c>
-      <c r="C13" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="59" t="s">
-        <v>740</v>
-      </c>
-      <c r="F13" s="63"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="59" t="s">
+      <c r="C23" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="57" t="s">
+        <v>753</v>
+      </c>
+      <c r="F23" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="G23" s="53">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="56" t="s">
+        <v>746</v>
+      </c>
+      <c r="B24" s="57" t="s">
         <v>561</v>
       </c>
-      <c r="C14" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>741</v>
-      </c>
-      <c r="F14" s="63"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="59" t="s">
-        <v>696</v>
-      </c>
-      <c r="C15" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="59" t="s">
-        <v>742</v>
-      </c>
-      <c r="F15" s="63"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="61" t="s">
-        <v>697</v>
-      </c>
-      <c r="C16" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="61" t="s">
-        <v>743</v>
-      </c>
-      <c r="F16" s="64"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="56" t="s">
-        <v>744</v>
-      </c>
-      <c r="B17" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="57" t="s">
-        <v>752</v>
-      </c>
-      <c r="F17" s="62"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="58" t="s">
-        <v>745</v>
-      </c>
-      <c r="B18" s="59" t="s">
-        <v>558</v>
-      </c>
-      <c r="C18" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="59" t="s">
-        <v>753</v>
-      </c>
-      <c r="F18" s="63"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="58" t="s">
-        <v>746</v>
-      </c>
-      <c r="B19" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="59" t="s">
+      <c r="C24" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="57" t="s">
         <v>754</v>
       </c>
-      <c r="F19" s="63"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="58" t="s">
+      <c r="F24" s="63" t="s">
+        <v>762</v>
+      </c>
+      <c r="G24" s="53">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="56" t="s">
         <v>747</v>
       </c>
-      <c r="B20" s="59" t="s">
-        <v>719</v>
-      </c>
-      <c r="C20" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="59" t="s">
+      <c r="B25" s="57" t="s">
+        <v>689</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="57" t="s">
         <v>755</v>
       </c>
-      <c r="F20" s="63"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="58" t="s">
+      <c r="F25" s="63" t="s">
+        <v>763</v>
+      </c>
+      <c r="G25" s="53">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="58" t="s">
         <v>748</v>
       </c>
-      <c r="B21" s="59" t="s">
-        <v>560</v>
-      </c>
-      <c r="C21" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="59" t="s">
+      <c r="B26" s="59" t="s">
+        <v>690</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="59" t="s">
         <v>756</v>
       </c>
-      <c r="F21" s="63"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="58" t="s">
-        <v>749</v>
-      </c>
-      <c r="B22" s="59" t="s">
-        <v>561</v>
-      </c>
-      <c r="C22" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="59" t="s">
-        <v>757</v>
-      </c>
-      <c r="F22" s="63"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="58" t="s">
-        <v>750</v>
-      </c>
-      <c r="B23" s="59" t="s">
-        <v>696</v>
-      </c>
-      <c r="C23" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="59" t="s">
-        <v>758</v>
-      </c>
-      <c r="F23" s="63"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="60" t="s">
-        <v>751</v>
-      </c>
-      <c r="B24" s="61" t="s">
-        <v>697</v>
-      </c>
-      <c r="C24" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="61" t="s">
-        <v>759</v>
-      </c>
-      <c r="F24" s="64"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="56" t="s">
-        <v>760</v>
-      </c>
-      <c r="B25" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="57" t="s">
+      <c r="F26" s="65" t="s">
+        <v>764</v>
+      </c>
+      <c r="G26" s="53">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="66" t="s">
+        <v>765</v>
+      </c>
+      <c r="B27" s="49"/>
+      <c r="C27" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="D27" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="97" t="s">
+        <v>770</v>
+      </c>
+      <c r="F27" s="68" t="s">
+        <v>772</v>
+      </c>
+      <c r="G27" s="53">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="69" t="s">
+        <v>766</v>
+      </c>
+      <c r="B28" s="70"/>
+      <c r="C28" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="52" t="s">
+        <v>769</v>
+      </c>
+      <c r="F28" s="68" t="s">
+        <v>771</v>
+      </c>
+      <c r="G28" s="53">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="71" t="s">
+        <v>767</v>
+      </c>
+      <c r="B29" s="72"/>
+      <c r="C29" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="D29" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="72" t="s">
         <v>768</v>
       </c>
-      <c r="F25" s="62" t="s">
-        <v>776</v>
-      </c>
-      <c r="G25" s="55">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="58" t="s">
-        <v>761</v>
-      </c>
-      <c r="B26" s="59" t="s">
-        <v>558</v>
-      </c>
-      <c r="C26" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="59" t="s">
-        <v>769</v>
-      </c>
-      <c r="F26" s="63" t="s">
-        <v>777</v>
-      </c>
-      <c r="G26" s="55">
-        <v>3101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="58" t="s">
-        <v>762</v>
-      </c>
-      <c r="B27" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="59" t="s">
-        <v>770</v>
-      </c>
-      <c r="F27" s="63" t="s">
-        <v>778</v>
-      </c>
-      <c r="G27" s="55">
-        <v>3102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="58" t="s">
-        <v>763</v>
-      </c>
-      <c r="B28" s="59" t="s">
-        <v>719</v>
-      </c>
-      <c r="C28" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="59" t="s">
-        <v>771</v>
-      </c>
-      <c r="F28" s="63" t="s">
-        <v>779</v>
-      </c>
-      <c r="G28" s="55">
-        <v>3103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="58" t="s">
-        <v>764</v>
-      </c>
-      <c r="B29" s="59" t="s">
-        <v>560</v>
-      </c>
-      <c r="C29" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="59" t="s">
-        <v>772</v>
-      </c>
-      <c r="F29" s="65" t="s">
-        <v>780</v>
-      </c>
-      <c r="G29" s="55">
-        <v>3104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="58" t="s">
-        <v>765</v>
-      </c>
-      <c r="B30" s="59" t="s">
-        <v>561</v>
-      </c>
-      <c r="C30" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="59" t="s">
+      <c r="F29" s="73" t="s">
         <v>773</v>
       </c>
-      <c r="F30" s="65" t="s">
-        <v>781</v>
-      </c>
-      <c r="G30" s="55">
-        <v>3105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="58" t="s">
-        <v>766</v>
-      </c>
-      <c r="B31" s="59" t="s">
-        <v>696</v>
-      </c>
-      <c r="C31" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="59" t="s">
-        <v>774</v>
-      </c>
-      <c r="F31" s="65" t="s">
-        <v>782</v>
-      </c>
-      <c r="G31" s="55">
-        <v>3106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="60" t="s">
-        <v>767</v>
-      </c>
-      <c r="B32" s="61" t="s">
-        <v>697</v>
-      </c>
-      <c r="C32" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="61" t="s">
-        <v>775</v>
-      </c>
-      <c r="F32" s="67" t="s">
-        <v>783</v>
-      </c>
-      <c r="G32" s="55">
-        <v>3107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="68" t="s">
-        <v>784</v>
-      </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="69" t="s">
-        <v>210</v>
-      </c>
-      <c r="D33" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="51" t="s">
-        <v>789</v>
-      </c>
-      <c r="F33" s="70" t="s">
-        <v>791</v>
-      </c>
-      <c r="G33" s="55">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="71" t="s">
-        <v>785</v>
-      </c>
-      <c r="B34" s="72"/>
-      <c r="C34" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="D34" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="54" t="s">
-        <v>788</v>
-      </c>
-      <c r="F34" s="70" t="s">
-        <v>790</v>
-      </c>
-      <c r="G34" s="55">
-        <v>3109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="73" t="s">
-        <v>786</v>
-      </c>
-      <c r="B35" s="74"/>
-      <c r="C35" s="66" t="s">
-        <v>210</v>
-      </c>
-      <c r="D35" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="74" t="s">
-        <v>787</v>
-      </c>
-      <c r="F35" s="75" t="s">
-        <v>792</v>
-      </c>
-      <c r="G35" s="55">
+      <c r="G29" s="53">
         <v>3110</v>
       </c>
     </row>
@@ -7090,10 +7236,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7103,454 +7249,4072 @@
     <col min="5" max="5" width="15.75" customWidth="1"/>
     <col min="6" max="6" width="38.125" customWidth="1"/>
     <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="28.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15">
+      <c r="A1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15">
+      <c r="A2" s="54" t="s">
+        <v>774</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>777</v>
+      </c>
+      <c r="F2" s="55"/>
+      <c r="G2" s="68"/>
+    </row>
+    <row r="3" spans="1:10" ht="15">
+      <c r="A3" s="56" t="s">
+        <v>775</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>778</v>
+      </c>
+      <c r="F3" s="57"/>
+      <c r="G3" s="74"/>
+      <c r="I3" s="78" t="s">
+        <v>797</v>
+      </c>
+      <c r="J3" s="78"/>
+    </row>
+    <row r="4" spans="1:10" ht="15">
+      <c r="A4" s="56" t="s">
+        <v>776</v>
+      </c>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>779</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>780</v>
+      </c>
+      <c r="G4" s="74">
+        <v>3200</v>
+      </c>
+      <c r="I4" s="78" t="s">
+        <v>775</v>
+      </c>
+      <c r="J4" s="78"/>
+    </row>
+    <row r="5" spans="1:10" ht="15">
+      <c r="A5" s="56" t="s">
+        <v>781</v>
+      </c>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>784</v>
+      </c>
+      <c r="F5" s="57"/>
+      <c r="G5" s="74"/>
+      <c r="I5" s="78" t="s">
+        <v>800</v>
+      </c>
+      <c r="J5" s="78"/>
+    </row>
+    <row r="6" spans="1:10" ht="15">
+      <c r="A6" s="56" t="s">
+        <v>782</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>785</v>
+      </c>
+      <c r="F6" s="57"/>
+      <c r="G6" s="74"/>
+      <c r="I6" s="78" t="s">
+        <v>798</v>
+      </c>
+      <c r="J6" s="78"/>
+    </row>
+    <row r="7" spans="1:10" ht="15">
+      <c r="A7" s="56" t="s">
+        <v>783</v>
+      </c>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>786</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>787</v>
+      </c>
+      <c r="G7" s="74">
+        <v>3201</v>
+      </c>
+      <c r="I7" s="78" t="s">
+        <v>799</v>
+      </c>
+      <c r="J7" s="78"/>
+    </row>
+    <row r="8" spans="1:10" ht="15">
+      <c r="A8" s="58" t="s">
+        <v>788</v>
+      </c>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>789</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>790</v>
+      </c>
+      <c r="G8" s="73">
+        <v>3202</v>
+      </c>
+      <c r="I8" s="78" t="s">
+        <v>801</v>
+      </c>
+      <c r="J8" s="78"/>
+    </row>
+    <row r="9" spans="1:10" ht="15">
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="70"/>
+      <c r="I9" s="78" t="s">
+        <v>788</v>
+      </c>
+      <c r="J9" s="78"/>
+    </row>
+    <row r="10" spans="1:10" ht="15">
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="70"/>
+    </row>
+    <row r="11" spans="1:10" ht="15">
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="70"/>
+    </row>
+    <row r="12" spans="1:10" ht="15">
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="70"/>
+    </row>
+    <row r="13" spans="1:10" ht="15">
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="70"/>
+    </row>
+    <row r="14" spans="1:10" ht="15">
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="70"/>
+    </row>
+    <row r="15" spans="1:10" ht="15">
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="70"/>
+    </row>
+    <row r="16" spans="1:10" ht="15">
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="70"/>
+    </row>
+    <row r="17" spans="1:7" ht="15">
+      <c r="A17" s="57"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="70"/>
+    </row>
+    <row r="18" spans="1:7" ht="15">
+      <c r="A18" s="57"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="70"/>
+    </row>
+    <row r="19" spans="1:7" ht="15">
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="70"/>
+    </row>
+    <row r="20" spans="1:7" ht="15">
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="70"/>
+    </row>
+    <row r="21" spans="1:7" ht="15">
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="70"/>
+    </row>
+    <row r="22" spans="1:7" ht="15">
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="70"/>
+    </row>
+    <row r="23" spans="1:7" ht="15">
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="70"/>
+    </row>
+    <row r="24" spans="1:7" ht="15">
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="70"/>
+    </row>
+    <row r="25" spans="1:7" ht="15">
+      <c r="A25" s="52"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+    </row>
+    <row r="26" spans="1:7" ht="15">
+      <c r="A26" s="52"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+    </row>
+    <row r="27" spans="1:7" ht="15">
+      <c r="A27" s="52"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="34.375" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="62.75" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15">
+      <c r="A1" s="85"/>
+      <c r="B1" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="86" t="s">
+        <v>539</v>
+      </c>
+      <c r="H1" s="86" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15">
+      <c r="A2" s="85" t="s">
+        <v>882</v>
+      </c>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="85" t="s">
+        <v>884</v>
+      </c>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15">
+      <c r="A3" s="87" t="s">
+        <v>869</v>
+      </c>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="88" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="88" t="s">
+        <v>872</v>
+      </c>
+      <c r="F3" s="88"/>
+      <c r="G3" s="89"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>870</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>871</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>876</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>877</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>878</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>875</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
+        <v>888</v>
+      </c>
+      <c r="F9" t="s">
+        <v>885</v>
+      </c>
+      <c r="G9">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>875</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>889</v>
+      </c>
+      <c r="F10" t="s">
+        <v>886</v>
+      </c>
+      <c r="G10">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>875</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>890</v>
+      </c>
+      <c r="F11" t="s">
+        <v>887</v>
+      </c>
+      <c r="G11">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>893</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
+        <v>892</v>
+      </c>
+      <c r="F12" t="s">
+        <v>891</v>
+      </c>
+      <c r="G12">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15">
+      <c r="A13" s="87" t="s">
+        <v>895</v>
+      </c>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="88" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="88" t="s">
+        <v>900</v>
+      </c>
+      <c r="F13" s="88"/>
+      <c r="G13" s="89"/>
+    </row>
+    <row r="14" spans="1:8" ht="15">
+      <c r="A14" s="85" t="s">
+        <v>897</v>
+      </c>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85" t="s">
+        <v>894</v>
+      </c>
+      <c r="D14" s="85" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="85" t="s">
+        <v>898</v>
+      </c>
+      <c r="F14" s="85" t="s">
+        <v>908</v>
+      </c>
+      <c r="G14" s="90">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>899</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>902</v>
+      </c>
+      <c r="C16" t="s">
+        <v>894</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" t="s">
+        <v>896</v>
+      </c>
+      <c r="F16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G16">
+        <v>3306</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="42.5" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="47.25" customWidth="1"/>
+    <col min="7" max="9" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="52" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15">
+      <c r="A2" s="54" t="s">
+        <v>802</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>808</v>
+      </c>
+      <c r="F2" s="55"/>
+      <c r="G2" s="68"/>
+    </row>
+    <row r="3" spans="1:7" ht="15">
+      <c r="A3" s="56" t="s">
+        <v>803</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>809</v>
+      </c>
+      <c r="F3" s="57"/>
+      <c r="G3" s="74"/>
+    </row>
+    <row r="4" spans="1:7" ht="15">
+      <c r="A4" s="56" t="s">
+        <v>804</v>
+      </c>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>810</v>
+      </c>
+      <c r="F4" s="57"/>
+    </row>
+    <row r="5" spans="1:7" ht="15">
+      <c r="A5" s="56" t="s">
+        <v>805</v>
+      </c>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57" t="s">
+        <v>830</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>811</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>814</v>
+      </c>
+      <c r="G5" s="74">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15">
+      <c r="A6" s="56" t="s">
+        <v>806</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57" t="s">
+        <v>830</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>812</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>816</v>
+      </c>
+      <c r="G6" s="74">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15">
+      <c r="A7" s="58" t="s">
+        <v>807</v>
+      </c>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>813</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>815</v>
+      </c>
+      <c r="G7" s="73">
+        <v>3503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15">
+      <c r="A9" s="76" t="s">
+        <v>802</v>
+      </c>
+      <c r="B9" s="76"/>
+    </row>
+    <row r="10" spans="1:7" ht="15">
+      <c r="A10" s="76" t="s">
+        <v>803</v>
+      </c>
+      <c r="B10" s="76"/>
+    </row>
+    <row r="11" spans="1:7" ht="15">
+      <c r="A11" s="76" t="s">
+        <v>804</v>
+      </c>
+      <c r="B11" s="76"/>
+    </row>
+    <row r="12" spans="1:7" ht="15">
+      <c r="A12" s="76" t="s">
+        <v>805</v>
+      </c>
+      <c r="B12" s="76"/>
+    </row>
+    <row r="13" spans="1:7" ht="15">
+      <c r="A13" s="76" t="s">
+        <v>806</v>
+      </c>
+      <c r="B13" s="76"/>
+    </row>
+    <row r="14" spans="1:7" ht="15">
+      <c r="A14" s="76" t="s">
+        <v>807</v>
+      </c>
+      <c r="B14" s="76"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="43.625" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="37.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15">
+      <c r="A1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15">
+      <c r="A2" s="54" t="s">
+        <v>817</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>823</v>
+      </c>
+      <c r="F2" s="55"/>
+      <c r="G2" s="68"/>
+    </row>
+    <row r="3" spans="1:7" ht="15">
+      <c r="A3" s="56" t="s">
+        <v>818</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>824</v>
+      </c>
+      <c r="F3" s="57"/>
+      <c r="G3" s="74"/>
+    </row>
+    <row r="4" spans="1:7" ht="15">
+      <c r="A4" s="56" t="s">
+        <v>819</v>
+      </c>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>825</v>
+      </c>
+      <c r="F4" s="57"/>
+      <c r="G4" s="80"/>
+    </row>
+    <row r="5" spans="1:7" ht="15">
+      <c r="A5" s="56" t="s">
+        <v>820</v>
+      </c>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>826</v>
+      </c>
+      <c r="F5" s="57"/>
+      <c r="G5" s="74"/>
+    </row>
+    <row r="6" spans="1:7" ht="15">
+      <c r="A6" s="56" t="s">
+        <v>821</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>827</v>
+      </c>
+      <c r="F6" s="52"/>
+      <c r="G6" s="74"/>
+    </row>
+    <row r="7" spans="1:7" ht="15">
+      <c r="A7" s="56" t="s">
+        <v>822</v>
+      </c>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>828</v>
+      </c>
+      <c r="F7" s="57"/>
+      <c r="G7" s="74"/>
+    </row>
+    <row r="8" spans="1:7" ht="15">
+      <c r="A8" s="69" t="s">
+        <v>832</v>
+      </c>
+      <c r="B8" s="79"/>
+      <c r="C8" s="57" t="s">
+        <v>830</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>835</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>836</v>
+      </c>
+      <c r="G8" s="80">
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15">
+      <c r="A9" s="69" t="s">
+        <v>829</v>
+      </c>
+      <c r="B9" s="79"/>
+      <c r="C9" s="57" t="s">
+        <v>830</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>833</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>837</v>
+      </c>
+      <c r="G9" s="80">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15">
+      <c r="A10" s="71" t="s">
+        <v>831</v>
+      </c>
+      <c r="B10" s="81"/>
+      <c r="C10" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>834</v>
+      </c>
+      <c r="F10" s="64" t="s">
+        <v>838</v>
+      </c>
+      <c r="G10" s="82">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15">
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+    </row>
+    <row r="12" spans="1:7" ht="15">
+      <c r="A12" s="54" t="s">
+        <v>817</v>
+      </c>
+      <c r="B12" s="55"/>
+    </row>
+    <row r="13" spans="1:7" ht="15">
+      <c r="A13" s="56" t="s">
+        <v>818</v>
+      </c>
+      <c r="B13" s="57"/>
+    </row>
+    <row r="14" spans="1:7" ht="15">
+      <c r="A14" s="56" t="s">
+        <v>819</v>
+      </c>
+      <c r="B14" s="57"/>
+    </row>
+    <row r="15" spans="1:7" ht="15">
+      <c r="A15" s="56" t="s">
+        <v>820</v>
+      </c>
+      <c r="B15" s="57"/>
+    </row>
+    <row r="16" spans="1:7" ht="15">
+      <c r="A16" s="56" t="s">
+        <v>821</v>
+      </c>
+      <c r="B16" s="57"/>
+    </row>
+    <row r="17" spans="1:2" ht="15">
+      <c r="A17" s="56" t="s">
+        <v>822</v>
+      </c>
+      <c r="B17" s="57"/>
+    </row>
+    <row r="18" spans="1:2" ht="15">
+      <c r="A18" s="69" t="s">
+        <v>832</v>
+      </c>
+      <c r="B18" s="79"/>
+    </row>
+    <row r="19" spans="1:2" ht="15">
+      <c r="A19" s="69" t="s">
+        <v>829</v>
+      </c>
+      <c r="B19" s="79"/>
+    </row>
+    <row r="20" spans="1:2" ht="15">
+      <c r="A20" s="71" t="s">
+        <v>831</v>
+      </c>
+      <c r="B20" s="81"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="53.875" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="51.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="83" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15">
       <c r="A2" s="56" t="s">
-        <v>7</v>
+        <v>841</v>
       </c>
       <c r="B2" s="57"/>
       <c r="C2" s="57" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E2" s="57" t="s">
-        <v>796</v>
+        <v>842</v>
       </c>
       <c r="F2" s="57"/>
-      <c r="G2" s="70"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:7" ht="15">
-      <c r="A3" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>797</v>
-      </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="76"/>
+      <c r="A3" s="56" t="s">
+        <v>840</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>843</v>
+      </c>
+      <c r="F3" s="57"/>
+      <c r="G3" s="80"/>
     </row>
     <row r="4" spans="1:7" ht="15">
-      <c r="A4" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="54" t="s">
-        <v>798</v>
-      </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="76"/>
+      <c r="A4" s="56" t="s">
+        <v>839</v>
+      </c>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>844</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>845</v>
+      </c>
+      <c r="G4" s="74">
+        <v>3701</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="15">
-      <c r="A5" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>799</v>
-      </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="76"/>
+      <c r="A5" s="56" t="s">
+        <v>846</v>
+      </c>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>847</v>
+      </c>
+      <c r="F5" s="52"/>
+      <c r="G5" s="74"/>
     </row>
     <row r="6" spans="1:7" ht="15">
-      <c r="A6" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>800</v>
-      </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="76"/>
+      <c r="A6" s="56" t="s">
+        <v>848</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>849</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>850</v>
+      </c>
+      <c r="G6" s="74">
+        <v>3702</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="15">
-      <c r="A7" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="59" t="s">
-        <v>801</v>
-      </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="76"/>
+      <c r="A7" s="69" t="s">
+        <v>851</v>
+      </c>
+      <c r="B7" s="79"/>
+      <c r="C7" s="57" t="s">
+        <v>852</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>853</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>854</v>
+      </c>
+      <c r="G7" s="80">
+        <v>3703</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="15">
-      <c r="A8" s="60" t="s">
-        <v>695</v>
-      </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="61" t="s">
-        <v>802</v>
-      </c>
-      <c r="F8" s="61"/>
-      <c r="G8" s="75"/>
+      <c r="A8" s="69" t="s">
+        <v>855</v>
+      </c>
+      <c r="B8" s="79"/>
+      <c r="C8" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>858</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>856</v>
+      </c>
+      <c r="G8" s="80">
+        <v>3704</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="15">
-      <c r="A9" s="56" t="s">
-        <v>793</v>
-      </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>803</v>
-      </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="70"/>
+      <c r="A9" s="71" t="s">
+        <v>857</v>
+      </c>
+      <c r="B9" s="81"/>
+      <c r="C9" s="64" t="s">
+        <v>852</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>861</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>859</v>
+      </c>
+      <c r="G9" s="82">
+        <v>3705</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="15">
-      <c r="A10" s="58" t="s">
-        <v>794</v>
-      </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="59" t="s">
-        <v>804</v>
-      </c>
-      <c r="F10" s="59"/>
-      <c r="G10" s="76"/>
+      <c r="A10" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>830</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>862</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>863</v>
+      </c>
+      <c r="G10" s="84">
+        <v>3706</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="15">
-      <c r="A11" s="58" t="s">
-        <v>795</v>
-      </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="59" t="s">
-        <v>805</v>
-      </c>
-      <c r="F11" s="59" t="s">
-        <v>806</v>
-      </c>
-      <c r="G11" s="76">
-        <v>3200</v>
+      <c r="A11" s="69" t="s">
+        <v>866</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15">
-      <c r="A12" s="58" t="s">
-        <v>807</v>
-      </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="59" t="s">
-        <v>810</v>
-      </c>
-      <c r="F12" s="59"/>
-      <c r="G12" s="76"/>
-    </row>
-    <row r="13" spans="1:7" ht="15">
-      <c r="A13" s="58" t="s">
-        <v>808</v>
-      </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="59" t="s">
-        <v>811</v>
-      </c>
-      <c r="F13" s="59"/>
-      <c r="G13" s="76"/>
+      <c r="A12" s="69" t="s">
+        <v>865</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>830</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>867</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>868</v>
+      </c>
+      <c r="G12">
+        <v>3707</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="15">
-      <c r="A14" s="58" t="s">
-        <v>809</v>
-      </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>812</v>
-      </c>
-      <c r="F14" s="59" t="s">
-        <v>813</v>
-      </c>
-      <c r="G14" s="76">
-        <v>3201</v>
+      <c r="A14" s="56" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15">
-      <c r="A15" s="60" t="s">
-        <v>814</v>
-      </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="61" t="s">
-        <v>815</v>
-      </c>
-      <c r="F15" s="61" t="s">
-        <v>816</v>
-      </c>
-      <c r="G15" s="75">
-        <v>3202</v>
+      <c r="A15" s="56" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="72"/>
-    </row>
-    <row r="17" spans="1:7" ht="15">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="72"/>
-    </row>
-    <row r="18" spans="1:7" ht="15">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="72"/>
-    </row>
-    <row r="19" spans="1:7" ht="15">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="72"/>
-    </row>
-    <row r="20" spans="1:7" ht="15">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="72"/>
-    </row>
-    <row r="21" spans="1:7" ht="15">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="72"/>
-    </row>
-    <row r="22" spans="1:7" ht="15">
-      <c r="A22" s="59"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="72"/>
-    </row>
-    <row r="23" spans="1:7" ht="15">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="72"/>
-    </row>
-    <row r="24" spans="1:7" ht="15">
-      <c r="A24" s="59"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="72"/>
-    </row>
-    <row r="25" spans="1:7" ht="15">
-      <c r="A25" s="59"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="72"/>
-    </row>
-    <row r="26" spans="1:7" ht="15">
-      <c r="A26" s="59"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="72"/>
-    </row>
-    <row r="27" spans="1:7" ht="15">
-      <c r="A27" s="59"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="72"/>
-    </row>
-    <row r="28" spans="1:7" ht="15">
-      <c r="A28" s="59"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="72"/>
-    </row>
-    <row r="29" spans="1:7" ht="15">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="72"/>
-    </row>
-    <row r="30" spans="1:7" ht="15">
-      <c r="A30" s="59"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="72"/>
-    </row>
-    <row r="31" spans="1:7" ht="15">
-      <c r="A31" s="59"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="72"/>
-    </row>
-    <row r="32" spans="1:7" ht="15">
-      <c r="A32" s="54"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-    </row>
-    <row r="33" spans="1:7" ht="15">
-      <c r="A33" s="54"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-    </row>
-    <row r="34" spans="1:7" ht="15">
-      <c r="A34" s="54"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
+      <c r="A16" s="56" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15">
+      <c r="A17" s="56" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15">
+      <c r="A18" s="56" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15">
+      <c r="A19" s="69" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15">
+      <c r="A20" s="69" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15">
+      <c r="A21" s="71" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15">
+      <c r="A22" s="69" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15">
+      <c r="A23" s="69" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15">
+      <c r="A24" s="69" t="s">
+        <v>909</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I108"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="6" max="6" width="47.375" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="91" t="s">
+        <v>534</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>535</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>536</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>537</v>
+      </c>
+      <c r="E1" s="91" t="s">
+        <v>538</v>
+      </c>
+      <c r="F1" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="91" t="s">
+        <v>539</v>
+      </c>
+      <c r="H1" s="92" t="s">
+        <v>905</v>
+      </c>
+      <c r="I1" s="92" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="91" t="s">
+        <v>907</v>
+      </c>
+      <c r="B2" s="91" t="s">
+        <v>541</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="93" t="s">
+        <v>653</v>
+      </c>
+      <c r="B3" s="93" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="93" t="s">
+        <v>559</v>
+      </c>
+      <c r="D3" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="93" t="s">
+        <v>654</v>
+      </c>
+      <c r="B4" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="93" t="s">
+        <v>560</v>
+      </c>
+      <c r="D4" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="93" t="s">
+        <v>655</v>
+      </c>
+      <c r="B5" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>561</v>
+      </c>
+      <c r="D5" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="93" t="s">
+        <v>656</v>
+      </c>
+      <c r="B6" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="93" t="s">
+        <v>689</v>
+      </c>
+      <c r="D6" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="93" t="s">
+        <v>657</v>
+      </c>
+      <c r="B7" s="93" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="93" t="s">
+        <v>690</v>
+      </c>
+      <c r="D7" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="93" t="s">
+        <v>658</v>
+      </c>
+      <c r="B8" s="93" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>562</v>
+      </c>
+      <c r="D8" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="93" t="s">
+        <v>659</v>
+      </c>
+      <c r="B9" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="93" t="s">
+        <v>691</v>
+      </c>
+      <c r="D9" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="93" t="s">
+        <v>660</v>
+      </c>
+      <c r="B10" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="93" t="s">
+        <v>692</v>
+      </c>
+      <c r="D10" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="93" t="s">
+        <v>661</v>
+      </c>
+      <c r="B11" s="93" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="93" t="s">
+        <v>662</v>
+      </c>
+      <c r="B12" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="93" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="93" t="s">
+        <v>693</v>
+      </c>
+      <c r="G12" s="93">
+        <v>30001</v>
+      </c>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="93" t="s">
+        <v>663</v>
+      </c>
+      <c r="B13" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="93" t="s">
+        <v>559</v>
+      </c>
+      <c r="D13" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="93" t="s">
+        <v>694</v>
+      </c>
+      <c r="G13" s="93">
+        <v>30002</v>
+      </c>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="93" t="s">
+        <v>664</v>
+      </c>
+      <c r="B14" s="93" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="93" t="s">
+        <v>560</v>
+      </c>
+      <c r="D14" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="93" t="s">
+        <v>695</v>
+      </c>
+      <c r="G14" s="93">
+        <v>30003</v>
+      </c>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="93" t="s">
+        <v>665</v>
+      </c>
+      <c r="B15" s="93" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="93" t="s">
+        <v>561</v>
+      </c>
+      <c r="D15" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="93" t="s">
+        <v>696</v>
+      </c>
+      <c r="G15" s="93">
+        <v>30004</v>
+      </c>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="93" t="s">
+        <v>666</v>
+      </c>
+      <c r="B16" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="93" t="s">
+        <v>689</v>
+      </c>
+      <c r="D16" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="93" t="s">
+        <v>697</v>
+      </c>
+      <c r="G16" s="93">
+        <v>30005</v>
+      </c>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="93" t="s">
+        <v>667</v>
+      </c>
+      <c r="B17" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="93" t="s">
+        <v>690</v>
+      </c>
+      <c r="D17" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="93" t="s">
+        <v>698</v>
+      </c>
+      <c r="G17" s="93">
+        <v>30006</v>
+      </c>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="93" t="s">
+        <v>668</v>
+      </c>
+      <c r="B18" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="93" t="s">
+        <v>562</v>
+      </c>
+      <c r="D18" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="93" t="s">
+        <v>699</v>
+      </c>
+      <c r="G18" s="93">
+        <v>30007</v>
+      </c>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="93" t="s">
+        <v>669</v>
+      </c>
+      <c r="B19" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="93" t="s">
+        <v>691</v>
+      </c>
+      <c r="D19" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="93" t="s">
+        <v>700</v>
+      </c>
+      <c r="G19" s="93">
+        <v>30008</v>
+      </c>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="93" t="s">
+        <v>670</v>
+      </c>
+      <c r="B20" s="93" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="93" t="s">
+        <v>692</v>
+      </c>
+      <c r="D20" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="93" t="s">
+        <v>701</v>
+      </c>
+      <c r="G20" s="93">
+        <v>30009</v>
+      </c>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="93" t="s">
+        <v>671</v>
+      </c>
+      <c r="B21" s="93" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="93" t="s">
+        <v>702</v>
+      </c>
+      <c r="G21" s="93">
+        <v>30010</v>
+      </c>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="93" t="s">
+        <v>672</v>
+      </c>
+      <c r="B22" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="93" t="s">
+        <v>238</v>
+      </c>
+      <c r="D22" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="93" t="s">
+        <v>703</v>
+      </c>
+      <c r="G22" s="93">
+        <v>30011</v>
+      </c>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="93" t="s">
+        <v>673</v>
+      </c>
+      <c r="B23" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="93" t="s">
+        <v>559</v>
+      </c>
+      <c r="D23" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="93" t="s">
+        <v>674</v>
+      </c>
+      <c r="G23" s="93">
+        <v>30012</v>
+      </c>
+      <c r="H23" s="93"/>
+      <c r="I23" s="93">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="93" t="s">
+        <v>675</v>
+      </c>
+      <c r="B24" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="93" t="s">
+        <v>560</v>
+      </c>
+      <c r="D24" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="93" t="s">
+        <v>676</v>
+      </c>
+      <c r="G24" s="93">
+        <v>30013</v>
+      </c>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="93" t="s">
+        <v>677</v>
+      </c>
+      <c r="B25" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="93" t="s">
+        <v>561</v>
+      </c>
+      <c r="D25" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="93" t="s">
+        <v>678</v>
+      </c>
+      <c r="G25" s="93">
+        <v>30014</v>
+      </c>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="93" t="s">
+        <v>679</v>
+      </c>
+      <c r="B26" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="93" t="s">
+        <v>689</v>
+      </c>
+      <c r="D26" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="93" t="s">
+        <v>680</v>
+      </c>
+      <c r="G26" s="93">
+        <v>30015</v>
+      </c>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="93" t="s">
+        <v>681</v>
+      </c>
+      <c r="B27" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="93" t="s">
+        <v>690</v>
+      </c>
+      <c r="D27" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="93" t="s">
+        <v>682</v>
+      </c>
+      <c r="G27" s="93">
+        <v>30016</v>
+      </c>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="93" t="s">
+        <v>683</v>
+      </c>
+      <c r="B28" s="93" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="93" t="s">
+        <v>562</v>
+      </c>
+      <c r="D28" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="93" t="s">
+        <v>704</v>
+      </c>
+      <c r="G28" s="93">
+        <v>30017</v>
+      </c>
+      <c r="H28" s="93"/>
+      <c r="I28" s="93">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="93" t="s">
+        <v>684</v>
+      </c>
+      <c r="B29" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="93" t="s">
+        <v>691</v>
+      </c>
+      <c r="D29" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="93" t="s">
+        <v>705</v>
+      </c>
+      <c r="G29" s="93">
+        <v>30018</v>
+      </c>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="93" t="s">
+        <v>685</v>
+      </c>
+      <c r="B30" s="93" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="93" t="s">
+        <v>692</v>
+      </c>
+      <c r="D30" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="93" t="s">
+        <v>706</v>
+      </c>
+      <c r="G30" s="93">
+        <v>30019</v>
+      </c>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="93" t="s">
+        <v>686</v>
+      </c>
+      <c r="B31" s="93" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="93" t="s">
+        <v>707</v>
+      </c>
+      <c r="G31" s="93">
+        <v>30020</v>
+      </c>
+      <c r="H31" s="93"/>
+      <c r="I31" s="93">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="93" t="s">
+        <v>687</v>
+      </c>
+      <c r="B32" s="93" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="93" t="s">
+        <v>238</v>
+      </c>
+      <c r="D32" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="93" t="s">
+        <v>708</v>
+      </c>
+      <c r="G32" s="93">
+        <v>30021</v>
+      </c>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="93" t="s">
+        <v>716</v>
+      </c>
+      <c r="B33" s="93" t="s">
+        <v>688</v>
+      </c>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="93" t="s">
+        <v>717</v>
+      </c>
+      <c r="B34" s="93" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="93" t="s">
+        <v>718</v>
+      </c>
+      <c r="B35" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="93" t="s">
+        <v>558</v>
+      </c>
+      <c r="D35" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="93" t="s">
+        <v>719</v>
+      </c>
+      <c r="B36" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="93" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="93" t="s">
+        <v>720</v>
+      </c>
+      <c r="B37" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="93" t="s">
+        <v>712</v>
+      </c>
+      <c r="D37" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="93">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="93" t="s">
+        <v>721</v>
+      </c>
+      <c r="B38" s="93" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="93" t="s">
+        <v>560</v>
+      </c>
+      <c r="D38" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="93">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="93" t="s">
+        <v>722</v>
+      </c>
+      <c r="B39" s="93" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="93" t="s">
+        <v>561</v>
+      </c>
+      <c r="D39" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="93" t="s">
+        <v>723</v>
+      </c>
+      <c r="B40" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="93" t="s">
+        <v>689</v>
+      </c>
+      <c r="D40" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="93">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="93" t="s">
+        <v>724</v>
+      </c>
+      <c r="B41" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="93" t="s">
+        <v>690</v>
+      </c>
+      <c r="D41" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="93"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="93">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="93" t="s">
+        <v>733</v>
+      </c>
+      <c r="B42" s="93" t="s">
+        <v>725</v>
+      </c>
+      <c r="C42" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="93">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="93" t="s">
+        <v>734</v>
+      </c>
+      <c r="B43" s="93" t="s">
+        <v>726</v>
+      </c>
+      <c r="C43" s="93" t="s">
+        <v>558</v>
+      </c>
+      <c r="D43" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="93">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="93" t="s">
+        <v>735</v>
+      </c>
+      <c r="B44" s="93" t="s">
+        <v>727</v>
+      </c>
+      <c r="C44" s="93" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="93"/>
+      <c r="G44" s="93"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="93">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="93" t="s">
+        <v>736</v>
+      </c>
+      <c r="B45" s="93" t="s">
+        <v>728</v>
+      </c>
+      <c r="C45" s="93" t="s">
+        <v>712</v>
+      </c>
+      <c r="D45" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="93"/>
+      <c r="G45" s="93"/>
+      <c r="H45" s="93"/>
+      <c r="I45" s="93">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="93" t="s">
+        <v>737</v>
+      </c>
+      <c r="B46" s="93" t="s">
+        <v>729</v>
+      </c>
+      <c r="C46" s="93" t="s">
+        <v>560</v>
+      </c>
+      <c r="D46" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="93"/>
+      <c r="G46" s="93"/>
+      <c r="H46" s="93"/>
+      <c r="I46" s="93">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="93" t="s">
+        <v>738</v>
+      </c>
+      <c r="B47" s="93" t="s">
+        <v>730</v>
+      </c>
+      <c r="C47" s="93" t="s">
+        <v>561</v>
+      </c>
+      <c r="D47" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="93"/>
+      <c r="G47" s="93"/>
+      <c r="H47" s="93"/>
+      <c r="I47" s="93">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="93" t="s">
+        <v>739</v>
+      </c>
+      <c r="B48" s="93" t="s">
+        <v>731</v>
+      </c>
+      <c r="C48" s="93" t="s">
+        <v>689</v>
+      </c>
+      <c r="D48" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="93"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="93"/>
+      <c r="I48" s="93">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="93" t="s">
+        <v>740</v>
+      </c>
+      <c r="B49" s="93" t="s">
+        <v>732</v>
+      </c>
+      <c r="C49" s="93" t="s">
+        <v>690</v>
+      </c>
+      <c r="D49" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="93"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="93"/>
+      <c r="I49" s="93">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="93" t="s">
+        <v>749</v>
+      </c>
+      <c r="B50" s="93" t="s">
+        <v>741</v>
+      </c>
+      <c r="C50" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50" s="93" t="s">
+        <v>757</v>
+      </c>
+      <c r="G50" s="93">
+        <v>3100</v>
+      </c>
+      <c r="H50" s="93"/>
+      <c r="I50" s="93">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="93" t="s">
+        <v>750</v>
+      </c>
+      <c r="B51" s="93" t="s">
+        <v>742</v>
+      </c>
+      <c r="C51" s="93" t="s">
+        <v>558</v>
+      </c>
+      <c r="D51" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" s="93" t="s">
+        <v>758</v>
+      </c>
+      <c r="G51" s="93">
+        <v>3101</v>
+      </c>
+      <c r="H51" s="93"/>
+      <c r="I51" s="93">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="93" t="s">
+        <v>751</v>
+      </c>
+      <c r="B52" s="93" t="s">
+        <v>743</v>
+      </c>
+      <c r="C52" s="93" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" s="93" t="s">
+        <v>759</v>
+      </c>
+      <c r="G52" s="93">
+        <v>3102</v>
+      </c>
+      <c r="H52" s="93"/>
+      <c r="I52" s="93">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="93" t="s">
+        <v>752</v>
+      </c>
+      <c r="B53" s="93" t="s">
+        <v>744</v>
+      </c>
+      <c r="C53" s="93" t="s">
+        <v>712</v>
+      </c>
+      <c r="D53" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F53" s="93" t="s">
+        <v>760</v>
+      </c>
+      <c r="G53" s="93">
+        <v>3103</v>
+      </c>
+      <c r="H53" s="93"/>
+      <c r="I53" s="93">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="93" t="s">
+        <v>753</v>
+      </c>
+      <c r="B54" s="93" t="s">
+        <v>745</v>
+      </c>
+      <c r="C54" s="93" t="s">
+        <v>560</v>
+      </c>
+      <c r="D54" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="93" t="s">
+        <v>761</v>
+      </c>
+      <c r="G54" s="93">
+        <v>3104</v>
+      </c>
+      <c r="H54" s="93"/>
+      <c r="I54" s="93">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="93" t="s">
+        <v>754</v>
+      </c>
+      <c r="B55" s="93" t="s">
+        <v>746</v>
+      </c>
+      <c r="C55" s="93" t="s">
+        <v>561</v>
+      </c>
+      <c r="D55" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F55" s="93" t="s">
+        <v>762</v>
+      </c>
+      <c r="G55" s="93">
+        <v>3105</v>
+      </c>
+      <c r="H55" s="93"/>
+      <c r="I55" s="93">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="93" t="s">
+        <v>755</v>
+      </c>
+      <c r="B56" s="93" t="s">
+        <v>747</v>
+      </c>
+      <c r="C56" s="93" t="s">
+        <v>689</v>
+      </c>
+      <c r="D56" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F56" s="93" t="s">
+        <v>763</v>
+      </c>
+      <c r="G56" s="93">
+        <v>3106</v>
+      </c>
+      <c r="H56" s="93"/>
+      <c r="I56" s="93">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="93" t="s">
+        <v>756</v>
+      </c>
+      <c r="B57" s="93" t="s">
+        <v>748</v>
+      </c>
+      <c r="C57" s="93" t="s">
+        <v>690</v>
+      </c>
+      <c r="D57" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="E57" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F57" s="93" t="s">
+        <v>764</v>
+      </c>
+      <c r="G57" s="93">
+        <v>3107</v>
+      </c>
+      <c r="H57" s="93"/>
+      <c r="I57" s="93">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="93" t="s">
+        <v>770</v>
+      </c>
+      <c r="B58" s="93" t="s">
+        <v>765</v>
+      </c>
+      <c r="C58" s="93"/>
+      <c r="D58" s="93" t="s">
+        <v>210</v>
+      </c>
+      <c r="E58" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" s="93" t="s">
+        <v>772</v>
+      </c>
+      <c r="G58" s="93">
+        <v>3108</v>
+      </c>
+      <c r="H58" s="93"/>
+      <c r="I58" s="93">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="93" t="s">
+        <v>769</v>
+      </c>
+      <c r="B59" s="93" t="s">
+        <v>766</v>
+      </c>
+      <c r="C59" s="93"/>
+      <c r="D59" s="93" t="s">
+        <v>210</v>
+      </c>
+      <c r="E59" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F59" s="93" t="s">
+        <v>771</v>
+      </c>
+      <c r="G59" s="93">
+        <v>3109</v>
+      </c>
+      <c r="H59" s="93"/>
+      <c r="I59" s="93">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="93" t="s">
+        <v>768</v>
+      </c>
+      <c r="B60" s="93" t="s">
+        <v>767</v>
+      </c>
+      <c r="C60" s="93"/>
+      <c r="D60" s="93" t="s">
+        <v>210</v>
+      </c>
+      <c r="E60" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F60" s="93" t="s">
+        <v>773</v>
+      </c>
+      <c r="G60" s="93">
+        <v>3110</v>
+      </c>
+      <c r="H60" s="93"/>
+      <c r="I60" s="93">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="93" t="s">
+        <v>777</v>
+      </c>
+      <c r="B61" s="93" t="s">
+        <v>774</v>
+      </c>
+      <c r="C61" s="93"/>
+      <c r="D61" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" s="93"/>
+      <c r="G61" s="93"/>
+      <c r="H61" s="93"/>
+      <c r="I61" s="93">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="93" t="s">
+        <v>778</v>
+      </c>
+      <c r="B62" s="93" t="s">
+        <v>775</v>
+      </c>
+      <c r="C62" s="93"/>
+      <c r="D62" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" s="93"/>
+      <c r="G62" s="93"/>
+      <c r="H62" s="93"/>
+      <c r="I62" s="93">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="93" t="s">
+        <v>779</v>
+      </c>
+      <c r="B63" s="93" t="s">
+        <v>776</v>
+      </c>
+      <c r="C63" s="93"/>
+      <c r="D63" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F63" s="93" t="s">
+        <v>780</v>
+      </c>
+      <c r="G63" s="93">
+        <v>3200</v>
+      </c>
+      <c r="H63" s="93"/>
+      <c r="I63" s="93">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="93" t="s">
+        <v>784</v>
+      </c>
+      <c r="B64" s="93" t="s">
+        <v>781</v>
+      </c>
+      <c r="C64" s="93"/>
+      <c r="D64" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" s="93"/>
+      <c r="G64" s="93"/>
+      <c r="H64" s="93"/>
+      <c r="I64" s="93">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="93" t="s">
+        <v>785</v>
+      </c>
+      <c r="B65" s="93" t="s">
+        <v>782</v>
+      </c>
+      <c r="C65" s="93"/>
+      <c r="D65" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" s="93"/>
+      <c r="G65" s="93"/>
+      <c r="H65" s="93"/>
+      <c r="I65" s="93">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="93" t="s">
+        <v>786</v>
+      </c>
+      <c r="B66" s="93" t="s">
+        <v>783</v>
+      </c>
+      <c r="C66" s="93"/>
+      <c r="D66" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F66" s="93" t="s">
+        <v>787</v>
+      </c>
+      <c r="G66" s="93">
+        <v>3201</v>
+      </c>
+      <c r="H66" s="93"/>
+      <c r="I66" s="93">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="93" t="s">
+        <v>789</v>
+      </c>
+      <c r="B67" s="93" t="s">
+        <v>788</v>
+      </c>
+      <c r="C67" s="93"/>
+      <c r="D67" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F67" s="93" t="s">
+        <v>790</v>
+      </c>
+      <c r="G67" s="93">
+        <v>3202</v>
+      </c>
+      <c r="H67" s="93"/>
+      <c r="I67" s="93">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="93" t="s">
+        <v>884</v>
+      </c>
+      <c r="B68" s="93" t="s">
+        <v>882</v>
+      </c>
+      <c r="C68" s="93"/>
+      <c r="D68" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" s="93"/>
+      <c r="G68" s="93"/>
+      <c r="H68" s="93">
+        <v>3</v>
+      </c>
+      <c r="I68" s="93">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="93" t="s">
+        <v>872</v>
+      </c>
+      <c r="B69" s="93" t="s">
+        <v>869</v>
+      </c>
+      <c r="C69" s="93"/>
+      <c r="D69" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" s="93"/>
+      <c r="G69" s="93"/>
+      <c r="H69" s="93"/>
+      <c r="I69" s="93">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="93" t="s">
+        <v>873</v>
+      </c>
+      <c r="B70" s="93" t="s">
+        <v>870</v>
+      </c>
+      <c r="C70" s="93"/>
+      <c r="D70" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70" s="93"/>
+      <c r="G70" s="93"/>
+      <c r="H70" s="93"/>
+      <c r="I70" s="93">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="93" t="s">
+        <v>874</v>
+      </c>
+      <c r="B71" s="93" t="s">
+        <v>871</v>
+      </c>
+      <c r="C71" s="93"/>
+      <c r="D71" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" s="93"/>
+      <c r="G71" s="93"/>
+      <c r="H71" s="93"/>
+      <c r="I71" s="93">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="93" t="s">
+        <v>879</v>
+      </c>
+      <c r="B72" s="93" t="s">
+        <v>876</v>
+      </c>
+      <c r="C72" s="93"/>
+      <c r="D72" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" s="93"/>
+      <c r="G72" s="93"/>
+      <c r="H72" s="93"/>
+      <c r="I72" s="93">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="93" t="s">
+        <v>880</v>
+      </c>
+      <c r="B73" s="93" t="s">
+        <v>877</v>
+      </c>
+      <c r="C73" s="93"/>
+      <c r="D73" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" s="93"/>
+      <c r="G73" s="93"/>
+      <c r="H73" s="93"/>
+      <c r="I73" s="93">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="93" t="s">
+        <v>881</v>
+      </c>
+      <c r="B74" s="93" t="s">
+        <v>878</v>
+      </c>
+      <c r="C74" s="93"/>
+      <c r="D74" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" s="93"/>
+      <c r="G74" s="93"/>
+      <c r="H74" s="93"/>
+      <c r="I74" s="93">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="93" t="s">
+        <v>888</v>
+      </c>
+      <c r="B75" s="93" t="s">
+        <v>875</v>
+      </c>
+      <c r="C75" s="93"/>
+      <c r="D75" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="E75" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F75" s="93" t="s">
+        <v>885</v>
+      </c>
+      <c r="G75" s="93">
+        <v>3301</v>
+      </c>
+      <c r="H75" s="93"/>
+      <c r="I75" s="93">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="93" t="s">
+        <v>889</v>
+      </c>
+      <c r="B76" s="93" t="s">
+        <v>875</v>
+      </c>
+      <c r="C76" s="93"/>
+      <c r="D76" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="E76" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F76" s="93" t="s">
+        <v>886</v>
+      </c>
+      <c r="G76" s="93">
+        <v>3302</v>
+      </c>
+      <c r="H76" s="93"/>
+      <c r="I76" s="93">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="93" t="s">
+        <v>890</v>
+      </c>
+      <c r="B77" s="93" t="s">
+        <v>875</v>
+      </c>
+      <c r="C77" s="93"/>
+      <c r="D77" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="E77" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F77" s="93" t="s">
+        <v>887</v>
+      </c>
+      <c r="G77" s="93">
+        <v>3303</v>
+      </c>
+      <c r="H77" s="93"/>
+      <c r="I77" s="93">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="93" t="s">
+        <v>892</v>
+      </c>
+      <c r="B78" s="93" t="s">
+        <v>893</v>
+      </c>
+      <c r="C78" s="93"/>
+      <c r="D78" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="E78" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F78" s="93" t="s">
+        <v>891</v>
+      </c>
+      <c r="G78" s="93">
+        <v>3304</v>
+      </c>
+      <c r="H78" s="93"/>
+      <c r="I78" s="93">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="93" t="s">
+        <v>900</v>
+      </c>
+      <c r="B79" s="93" t="s">
+        <v>895</v>
+      </c>
+      <c r="C79" s="93"/>
+      <c r="D79" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="E79" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" s="93"/>
+      <c r="G79" s="93"/>
+      <c r="H79" s="93"/>
+      <c r="I79" s="93">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="93" t="s">
+        <v>898</v>
+      </c>
+      <c r="B80" s="93" t="s">
+        <v>897</v>
+      </c>
+      <c r="C80" s="93"/>
+      <c r="D80" s="93" t="s">
+        <v>894</v>
+      </c>
+      <c r="E80" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F80" s="93" t="s">
+        <v>903</v>
+      </c>
+      <c r="G80" s="93">
+        <v>3305</v>
+      </c>
+      <c r="H80" s="93"/>
+      <c r="I80" s="93">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="93" t="s">
+        <v>901</v>
+      </c>
+      <c r="B81" s="93" t="s">
+        <v>899</v>
+      </c>
+      <c r="C81" s="93"/>
+      <c r="D81" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="E81" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" s="93"/>
+      <c r="G81" s="93"/>
+      <c r="H81" s="93"/>
+      <c r="I81" s="93">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="93" t="s">
+        <v>896</v>
+      </c>
+      <c r="B82" s="93" t="s">
+        <v>902</v>
+      </c>
+      <c r="C82" s="93"/>
+      <c r="D82" s="93" t="s">
+        <v>894</v>
+      </c>
+      <c r="E82" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F82" s="93" t="s">
+        <v>904</v>
+      </c>
+      <c r="G82" s="93">
+        <v>3306</v>
+      </c>
+      <c r="H82" s="93"/>
+      <c r="I82" s="93">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="93" t="s">
+        <v>808</v>
+      </c>
+      <c r="B83" s="93" t="s">
+        <v>802</v>
+      </c>
+      <c r="C83" s="93"/>
+      <c r="D83" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" s="93"/>
+      <c r="G83" s="93"/>
+      <c r="H83" s="93"/>
+      <c r="I83" s="93">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="93" t="s">
+        <v>809</v>
+      </c>
+      <c r="B84" s="93" t="s">
+        <v>803</v>
+      </c>
+      <c r="C84" s="93"/>
+      <c r="D84" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" s="93"/>
+      <c r="G84" s="93"/>
+      <c r="H84" s="93"/>
+      <c r="I84" s="93">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="93" t="s">
+        <v>810</v>
+      </c>
+      <c r="B85" s="93" t="s">
+        <v>804</v>
+      </c>
+      <c r="C85" s="93"/>
+      <c r="D85" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" s="93"/>
+      <c r="G85" s="93"/>
+      <c r="H85" s="93"/>
+      <c r="I85" s="93">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="93" t="s">
+        <v>811</v>
+      </c>
+      <c r="B86" s="93" t="s">
+        <v>805</v>
+      </c>
+      <c r="C86" s="93"/>
+      <c r="D86" s="93" t="s">
+        <v>830</v>
+      </c>
+      <c r="E86" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F86" s="93" t="s">
+        <v>814</v>
+      </c>
+      <c r="G86" s="93">
+        <v>3501</v>
+      </c>
+      <c r="H86" s="93"/>
+      <c r="I86" s="93">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="93" t="s">
+        <v>812</v>
+      </c>
+      <c r="B87" s="93" t="s">
+        <v>806</v>
+      </c>
+      <c r="C87" s="93"/>
+      <c r="D87" s="93" t="s">
+        <v>830</v>
+      </c>
+      <c r="E87" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F87" s="93" t="s">
+        <v>816</v>
+      </c>
+      <c r="G87" s="93">
+        <v>3502</v>
+      </c>
+      <c r="H87" s="93"/>
+      <c r="I87" s="93">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="93" t="s">
+        <v>813</v>
+      </c>
+      <c r="B88" s="93" t="s">
+        <v>807</v>
+      </c>
+      <c r="C88" s="93"/>
+      <c r="D88" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="E88" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F88" s="93" t="s">
+        <v>815</v>
+      </c>
+      <c r="G88" s="93">
+        <v>3503</v>
+      </c>
+      <c r="H88" s="93"/>
+      <c r="I88" s="93">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="93" t="s">
+        <v>823</v>
+      </c>
+      <c r="B89" s="93" t="s">
+        <v>817</v>
+      </c>
+      <c r="C89" s="93"/>
+      <c r="D89" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E89" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" s="93"/>
+      <c r="G89" s="93"/>
+      <c r="H89" s="93"/>
+      <c r="I89" s="93">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="93" t="s">
+        <v>824</v>
+      </c>
+      <c r="B90" s="93" t="s">
+        <v>818</v>
+      </c>
+      <c r="C90" s="93"/>
+      <c r="D90" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E90" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" s="93"/>
+      <c r="G90" s="93"/>
+      <c r="H90" s="93"/>
+      <c r="I90" s="93">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="93" t="s">
+        <v>825</v>
+      </c>
+      <c r="B91" s="93" t="s">
+        <v>819</v>
+      </c>
+      <c r="C91" s="93"/>
+      <c r="D91" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F91" s="93"/>
+      <c r="G91" s="93"/>
+      <c r="H91" s="93"/>
+      <c r="I91" s="93">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="93" t="s">
+        <v>826</v>
+      </c>
+      <c r="B92" s="93" t="s">
+        <v>820</v>
+      </c>
+      <c r="C92" s="93"/>
+      <c r="D92" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F92" s="93"/>
+      <c r="G92" s="93"/>
+      <c r="H92" s="93"/>
+      <c r="I92" s="93">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="93" t="s">
+        <v>827</v>
+      </c>
+      <c r="B93" s="93" t="s">
+        <v>821</v>
+      </c>
+      <c r="C93" s="93"/>
+      <c r="D93" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" s="93"/>
+      <c r="G93" s="93"/>
+      <c r="H93" s="93"/>
+      <c r="I93" s="93">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="93" t="s">
+        <v>828</v>
+      </c>
+      <c r="B94" s="93" t="s">
+        <v>822</v>
+      </c>
+      <c r="C94" s="93"/>
+      <c r="D94" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" s="93"/>
+      <c r="G94" s="93"/>
+      <c r="H94" s="93"/>
+      <c r="I94" s="93">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="93" t="s">
+        <v>835</v>
+      </c>
+      <c r="B95" s="93" t="s">
+        <v>832</v>
+      </c>
+      <c r="C95" s="93"/>
+      <c r="D95" s="93" t="s">
+        <v>830</v>
+      </c>
+      <c r="E95" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F95" s="93" t="s">
+        <v>836</v>
+      </c>
+      <c r="G95" s="93">
+        <v>3601</v>
+      </c>
+      <c r="H95" s="93"/>
+      <c r="I95" s="93">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="93" t="s">
+        <v>833</v>
+      </c>
+      <c r="B96" s="93" t="s">
+        <v>829</v>
+      </c>
+      <c r="C96" s="93"/>
+      <c r="D96" s="93" t="s">
+        <v>830</v>
+      </c>
+      <c r="E96" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F96" s="93" t="s">
+        <v>837</v>
+      </c>
+      <c r="G96" s="93">
+        <v>3602</v>
+      </c>
+      <c r="H96" s="93"/>
+      <c r="I96" s="93">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="93" t="s">
+        <v>834</v>
+      </c>
+      <c r="B97" s="93" t="s">
+        <v>831</v>
+      </c>
+      <c r="C97" s="93"/>
+      <c r="D97" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="E97" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F97" s="93" t="s">
+        <v>838</v>
+      </c>
+      <c r="G97" s="93">
+        <v>3602</v>
+      </c>
+      <c r="H97" s="93"/>
+      <c r="I97" s="93">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="93" t="s">
+        <v>842</v>
+      </c>
+      <c r="B98" s="93" t="s">
+        <v>841</v>
+      </c>
+      <c r="C98" s="93"/>
+      <c r="D98" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F98" s="93"/>
+      <c r="G98" s="93"/>
+      <c r="H98" s="93"/>
+      <c r="I98" s="93">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="93" t="s">
+        <v>843</v>
+      </c>
+      <c r="B99" s="93" t="s">
+        <v>840</v>
+      </c>
+      <c r="C99" s="93"/>
+      <c r="D99" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E99" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99" s="93"/>
+      <c r="G99" s="93"/>
+      <c r="H99" s="93"/>
+      <c r="I99" s="93">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="93" t="s">
+        <v>844</v>
+      </c>
+      <c r="B100" s="93" t="s">
+        <v>839</v>
+      </c>
+      <c r="C100" s="93"/>
+      <c r="D100" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F100" s="93" t="s">
+        <v>845</v>
+      </c>
+      <c r="G100" s="93">
+        <v>3701</v>
+      </c>
+      <c r="H100" s="93"/>
+      <c r="I100" s="93">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="93" t="s">
+        <v>847</v>
+      </c>
+      <c r="B101" s="93" t="s">
+        <v>846</v>
+      </c>
+      <c r="C101" s="93"/>
+      <c r="D101" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F101" s="93"/>
+      <c r="G101" s="93"/>
+      <c r="H101" s="93"/>
+      <c r="I101" s="93">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="93" t="s">
+        <v>849</v>
+      </c>
+      <c r="B102" s="93" t="s">
+        <v>848</v>
+      </c>
+      <c r="C102" s="93"/>
+      <c r="D102" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F102" s="93" t="s">
+        <v>850</v>
+      </c>
+      <c r="G102" s="93">
+        <v>3702</v>
+      </c>
+      <c r="H102" s="93"/>
+      <c r="I102" s="93">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="93" t="s">
+        <v>853</v>
+      </c>
+      <c r="B103" s="93" t="s">
+        <v>851</v>
+      </c>
+      <c r="C103" s="93"/>
+      <c r="D103" s="93" t="s">
+        <v>852</v>
+      </c>
+      <c r="E103" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F103" s="93" t="s">
+        <v>854</v>
+      </c>
+      <c r="G103" s="93">
+        <v>3703</v>
+      </c>
+      <c r="H103" s="93"/>
+      <c r="I103" s="93">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="93" t="s">
+        <v>858</v>
+      </c>
+      <c r="B104" s="93" t="s">
+        <v>855</v>
+      </c>
+      <c r="C104" s="93"/>
+      <c r="D104" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E104" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F104" s="93" t="s">
+        <v>856</v>
+      </c>
+      <c r="G104" s="93">
+        <v>3704</v>
+      </c>
+      <c r="H104" s="93"/>
+      <c r="I104" s="93">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="93" t="s">
+        <v>861</v>
+      </c>
+      <c r="B105" s="93" t="s">
+        <v>857</v>
+      </c>
+      <c r="C105" s="93"/>
+      <c r="D105" s="93" t="s">
+        <v>852</v>
+      </c>
+      <c r="E105" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F105" s="93" t="s">
+        <v>859</v>
+      </c>
+      <c r="G105" s="93">
+        <v>3705</v>
+      </c>
+      <c r="H105" s="93"/>
+      <c r="I105" s="93">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="93" t="s">
+        <v>862</v>
+      </c>
+      <c r="B106" s="93" t="s">
+        <v>860</v>
+      </c>
+      <c r="C106" s="93"/>
+      <c r="D106" s="93" t="s">
+        <v>830</v>
+      </c>
+      <c r="E106" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F106" s="93" t="s">
+        <v>863</v>
+      </c>
+      <c r="G106" s="93">
+        <v>3706</v>
+      </c>
+      <c r="H106" s="93"/>
+      <c r="I106" s="93">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="93" t="s">
+        <v>864</v>
+      </c>
+      <c r="B107" s="93" t="s">
+        <v>866</v>
+      </c>
+      <c r="C107" s="93"/>
+      <c r="D107" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="E107" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F107" s="93"/>
+      <c r="G107" s="93"/>
+      <c r="H107" s="93"/>
+      <c r="I107" s="93">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="93" t="s">
+        <v>867</v>
+      </c>
+      <c r="B108" s="93" t="s">
+        <v>865</v>
+      </c>
+      <c r="C108" s="93"/>
+      <c r="D108" s="93" t="s">
+        <v>830</v>
+      </c>
+      <c r="E108" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F108" s="93" t="s">
+        <v>868</v>
+      </c>
+      <c r="G108" s="93">
+        <v>3707</v>
+      </c>
+      <c r="H108" s="93"/>
+      <c r="I108" s="93">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12547,7 +16311,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI303"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
